--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.609893303173806</v>
+        <v>2.609893303173749</v>
       </c>
       <c r="C2">
-        <v>1.156144220891633</v>
+        <v>1.156144220891463</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03048920440405567</v>
+        <v>0.03048920440401304</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.742596600835824</v>
+        <v>2.742596600835853</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1849458908166852</v>
+        <v>0.1849458908167136</v>
       </c>
       <c r="L2">
         <v>0.7315672606563197</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.239425648243923</v>
+        <v>2.239425648243866</v>
       </c>
       <c r="C3">
-        <v>0.9900867651664953</v>
+        <v>0.9900867651670637</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02818049817461521</v>
+        <v>0.02818049817459922</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1603560986441579</v>
+        <v>0.1603560986441828</v>
       </c>
       <c r="L3">
-        <v>0.6293116753233363</v>
+        <v>0.6293116753233434</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.017040306045658</v>
+        <v>2.017040306045601</v>
       </c>
       <c r="C4">
-        <v>0.8905762898502303</v>
+        <v>0.8905762898505145</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02681521008039667</v>
+        <v>0.02681521008033982</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.262806828952108</v>
+        <v>2.262806828952051</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1456592513433783</v>
+        <v>0.1456592513434067</v>
       </c>
       <c r="L4">
-        <v>0.5680334842017629</v>
+        <v>0.56803348420177</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927496368819959</v>
+        <v>1.927496368820215</v>
       </c>
       <c r="C5">
-        <v>0.8505423390796807</v>
+        <v>0.8505423390801354</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02627058541759908</v>
+        <v>0.02627058541754579</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.19114261265932</v>
+        <v>2.191142612659348</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1397570422622252</v>
+        <v>0.1397570422622145</v>
       </c>
       <c r="L5">
-        <v>0.5433851819386035</v>
+        <v>0.5433851819386106</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>1.912687507551624</v>
       </c>
       <c r="C6">
-        <v>0.8439233052917814</v>
+        <v>0.8439233052915256</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02618082176638836</v>
+        <v>0.02618082176640257</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1387818492467332</v>
+        <v>0.138781849246751</v>
       </c>
       <c r="L6">
-        <v>0.539310342147246</v>
+        <v>0.5393103421472176</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.015828558825376</v>
+        <v>2.015828558825206</v>
       </c>
       <c r="C7">
-        <v>0.8900344054651725</v>
+        <v>0.8900344054654568</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02680781929032605</v>
+        <v>0.0268078192903598</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.261835509055445</v>
+        <v>2.26183550905543</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0.1455793178239873</v>
       </c>
       <c r="L7">
-        <v>0.5676998300090759</v>
+        <v>0.5676998300090901</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.480974264582244</v>
       </c>
       <c r="C8">
-        <v>1.09831624332503</v>
+        <v>1.098316243325542</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02968142345170577</v>
+        <v>0.02968142345167557</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1763750654778455</v>
+        <v>0.1763750654778633</v>
       </c>
       <c r="L8">
         <v>0.6959610273497745</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.44380410930512</v>
+        <v>3.443804109304892</v>
       </c>
       <c r="C9">
-        <v>1.53133157472007</v>
+        <v>1.531331574720468</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03580343051126533</v>
+        <v>0.03580343051119783</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.430500522199168</v>
+        <v>3.430500522199139</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2406783474434064</v>
+        <v>0.2406783474433993</v>
       </c>
       <c r="L9">
         <v>0.9623480924787557</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.199171586544765</v>
+        <v>4.199171586544708</v>
       </c>
       <c r="C10">
-        <v>1.872938140083079</v>
+        <v>1.872938140083306</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0407154346317764</v>
+        <v>0.04071543463173555</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2914999432898995</v>
+        <v>0.291499943289935</v>
       </c>
       <c r="L10">
-        <v>1.171911209316292</v>
+        <v>1.171911209316264</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.557994306688386</v>
+        <v>4.557994306688215</v>
       </c>
       <c r="C11">
-        <v>2.035814560030929</v>
+        <v>2.035814560030758</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04307210417055174</v>
+        <v>0.04307210417060148</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.368245012502342</v>
+        <v>4.368245012502285</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3157266643974026</v>
+        <v>0.3157266643974381</v>
       </c>
       <c r="L11">
         <v>1.271584218405209</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.696552387730435</v>
+        <v>4.696552387730492</v>
       </c>
       <c r="C12">
-        <v>2.098814109803016</v>
+        <v>2.0988141098033</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0439853669323611</v>
+        <v>0.04398536693239485</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.486120090730935</v>
+        <v>4.486120090730878</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3250939548568752</v>
+        <v>0.3250939548569036</v>
       </c>
       <c r="L12">
-        <v>1.310089766998203</v>
+        <v>1.310089766998189</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.666583303422271</v>
+        <v>4.666583303422158</v>
       </c>
       <c r="C13">
         <v>2.085182772414328</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04378769361937351</v>
+        <v>0.04378769361932555</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3230673395778538</v>
+        <v>0.3230673395778325</v>
       </c>
       <c r="L13">
         <v>1.301760557393621</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.569336673736075</v>
+        <v>4.569336673736302</v>
       </c>
       <c r="C14">
-        <v>2.040969488535154</v>
+        <v>2.040969488535382</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04314680015494332</v>
+        <v>0.04314680015486516</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.377884622303668</v>
+        <v>4.377884622303725</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.316493228217972</v>
+        <v>0.3164932282179578</v>
       </c>
       <c r="L14">
-        <v>1.274735946960021</v>
+        <v>1.274735946960007</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.510135624191435</v>
+        <v>4.510135624191264</v>
       </c>
       <c r="C15">
-        <v>2.014067879418462</v>
+        <v>2.014067879418803</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04275705645505745</v>
+        <v>0.04275705645513739</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.327590230422601</v>
+        <v>4.327590230422658</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3124926672583115</v>
+        <v>0.312492667258212</v>
       </c>
       <c r="L15">
-        <v>1.258286303668456</v>
+        <v>1.258286303668484</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.176067604444881</v>
+        <v>4.176067604444711</v>
       </c>
       <c r="C16">
-        <v>1.862464227417888</v>
+        <v>1.862464227417547</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0405641456154946</v>
+        <v>0.04056414561545552</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.044695360165861</v>
+        <v>4.044695360165974</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2899417108280744</v>
+        <v>0.289941710828117</v>
       </c>
       <c r="L16">
-        <v>1.165495842276094</v>
+        <v>1.165495842276059</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.975343235239507</v>
+        <v>3.975343235239166</v>
       </c>
       <c r="C17">
-        <v>1.771536134513781</v>
+        <v>1.771536134513099</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03925230548421688</v>
+        <v>0.03925230548426129</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2764132927587681</v>
+        <v>0.2764132927587752</v>
       </c>
       <c r="L17">
-        <v>1.109773500305124</v>
+        <v>1.109773500305103</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.861288204445145</v>
+        <v>3.861288204445259</v>
       </c>
       <c r="C18">
-        <v>1.719923261808788</v>
+        <v>1.719923261808958</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0.03850904192238858</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2687340057779721</v>
+        <v>0.2687340057779934</v>
       </c>
       <c r="L18">
         <v>1.078122547755527</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.822897437496749</v>
+        <v>3.822897437496863</v>
       </c>
       <c r="C19">
         <v>1.702559208259117</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03825923136290932</v>
+        <v>0.03825923136298215</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2661505023229935</v>
+        <v>0.2661505023230077</v>
       </c>
       <c r="L19">
-        <v>1.067470856747761</v>
+        <v>1.067470856747754</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.996562902843039</v>
+        <v>3.996562902843209</v>
       </c>
       <c r="C20">
-        <v>1.78114289722356</v>
+        <v>1.781142897223162</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03939076464759594</v>
+        <v>0.03939076464754621</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2778426444772464</v>
+        <v>0.277842644477218</v>
       </c>
       <c r="L20">
-        <v>1.115663026685404</v>
+        <v>1.115663026685361</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.597823208017644</v>
+        <v>4.597823208017473</v>
       </c>
       <c r="C21">
         <v>2.053917913530881</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04333445124732904</v>
+        <v>0.04333445124727042</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.402102290376632</v>
+        <v>4.402102290376746</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3184186589570501</v>
+        <v>0.3184186589570288</v>
       </c>
       <c r="L21">
-        <v>1.282651832303799</v>
+        <v>1.282651832303813</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.006707494459761</v>
+        <v>5.006707494459818</v>
       </c>
       <c r="C22">
-        <v>2.240050028036535</v>
+        <v>2.240050028036876</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04603536586088453</v>
+        <v>0.04603536586094314</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>4.786830462648879</v>
       </c>
       <c r="C23">
-        <v>2.139893515637652</v>
+        <v>2.139893515638278</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04458128620503743</v>
+        <v>0.04458128620503921</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3312006193709252</v>
+        <v>0.3312006193709607</v>
       </c>
       <c r="L23">
-        <v>1.335182840605015</v>
+        <v>1.335182840605</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.986965340538518</v>
+        <v>3.986965340538404</v>
       </c>
       <c r="C24">
         <v>1.776797632954469</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03932813345193686</v>
+        <v>0.03932813345189601</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.88527703002481</v>
+        <v>3.885277030024781</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.277196130600295</v>
+        <v>0.2771961306003092</v>
       </c>
       <c r="L24">
         <v>1.112999183973059</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.176310927717964</v>
+        <v>3.176310927717793</v>
       </c>
       <c r="C25">
-        <v>1.410765590739118</v>
+        <v>1.41076559073872</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03408408427623577</v>
+        <v>0.03408408427617005</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.208380954181578</v>
+        <v>3.208380954181592</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2227517760012461</v>
+        <v>0.2227517760012176</v>
       </c>
       <c r="L25">
-        <v>0.888243615714039</v>
+        <v>0.8882436157140603</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.609893303173749</v>
+        <v>2.609893303173806</v>
       </c>
       <c r="C2">
-        <v>1.156144220891463</v>
+        <v>1.156144220891633</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03048920440401304</v>
+        <v>0.03048920440405567</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.742596600835853</v>
+        <v>2.742596600835824</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1849458908167136</v>
+        <v>0.1849458908166852</v>
       </c>
       <c r="L2">
         <v>0.7315672606563197</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.239425648243866</v>
+        <v>2.239425648243923</v>
       </c>
       <c r="C3">
-        <v>0.9900867651670637</v>
+        <v>0.9900867651664953</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02818049817459922</v>
+        <v>0.02818049817461521</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1603560986441828</v>
+        <v>0.1603560986441579</v>
       </c>
       <c r="L3">
-        <v>0.6293116753233434</v>
+        <v>0.6293116753233363</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.017040306045601</v>
+        <v>2.017040306045658</v>
       </c>
       <c r="C4">
-        <v>0.8905762898505145</v>
+        <v>0.8905762898502303</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02681521008033982</v>
+        <v>0.02681521008039667</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.262806828952051</v>
+        <v>2.262806828952108</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1456592513434067</v>
+        <v>0.1456592513433783</v>
       </c>
       <c r="L4">
-        <v>0.56803348420177</v>
+        <v>0.5680334842017629</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927496368820215</v>
+        <v>1.927496368819959</v>
       </c>
       <c r="C5">
-        <v>0.8505423390801354</v>
+        <v>0.8505423390796807</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02627058541754579</v>
+        <v>0.02627058541759908</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.191142612659348</v>
+        <v>2.19114261265932</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1397570422622145</v>
+        <v>0.1397570422622252</v>
       </c>
       <c r="L5">
-        <v>0.5433851819386106</v>
+        <v>0.5433851819386035</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>1.912687507551624</v>
       </c>
       <c r="C6">
-        <v>0.8439233052915256</v>
+        <v>0.8439233052917814</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02618082176640257</v>
+        <v>0.02618082176638836</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.138781849246751</v>
+        <v>0.1387818492467332</v>
       </c>
       <c r="L6">
-        <v>0.5393103421472176</v>
+        <v>0.539310342147246</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.015828558825206</v>
+        <v>2.015828558825376</v>
       </c>
       <c r="C7">
-        <v>0.8900344054654568</v>
+        <v>0.8900344054651725</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0268078192903598</v>
+        <v>0.02680781929032605</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.26183550905543</v>
+        <v>2.261835509055445</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0.1455793178239873</v>
       </c>
       <c r="L7">
-        <v>0.5676998300090901</v>
+        <v>0.5676998300090759</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.480974264582244</v>
       </c>
       <c r="C8">
-        <v>1.098316243325542</v>
+        <v>1.09831624332503</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02968142345167557</v>
+        <v>0.02968142345170577</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1763750654778633</v>
+        <v>0.1763750654778455</v>
       </c>
       <c r="L8">
         <v>0.6959610273497745</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.443804109304892</v>
+        <v>3.44380410930512</v>
       </c>
       <c r="C9">
-        <v>1.531331574720468</v>
+        <v>1.53133157472007</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03580343051119783</v>
+        <v>0.03580343051126533</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.430500522199139</v>
+        <v>3.430500522199168</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2406783474433993</v>
+        <v>0.2406783474434064</v>
       </c>
       <c r="L9">
         <v>0.9623480924787557</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.199171586544708</v>
+        <v>4.199171586544765</v>
       </c>
       <c r="C10">
-        <v>1.872938140083306</v>
+        <v>1.872938140083079</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04071543463173555</v>
+        <v>0.0407154346317764</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.291499943289935</v>
+        <v>0.2914999432898995</v>
       </c>
       <c r="L10">
-        <v>1.171911209316264</v>
+        <v>1.171911209316292</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.557994306688215</v>
+        <v>4.557994306688386</v>
       </c>
       <c r="C11">
-        <v>2.035814560030758</v>
+        <v>2.035814560030929</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04307210417060148</v>
+        <v>0.04307210417055174</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.368245012502285</v>
+        <v>4.368245012502342</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3157266643974381</v>
+        <v>0.3157266643974026</v>
       </c>
       <c r="L11">
         <v>1.271584218405209</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.696552387730492</v>
+        <v>4.696552387730435</v>
       </c>
       <c r="C12">
-        <v>2.0988141098033</v>
+        <v>2.098814109803016</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04398536693239485</v>
+        <v>0.0439853669323611</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.486120090730878</v>
+        <v>4.486120090730935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3250939548569036</v>
+        <v>0.3250939548568752</v>
       </c>
       <c r="L12">
-        <v>1.310089766998189</v>
+        <v>1.310089766998203</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.666583303422158</v>
+        <v>4.666583303422271</v>
       </c>
       <c r="C13">
         <v>2.085182772414328</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04378769361932555</v>
+        <v>0.04378769361937351</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3230673395778325</v>
+        <v>0.3230673395778538</v>
       </c>
       <c r="L13">
         <v>1.301760557393621</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.569336673736302</v>
+        <v>4.569336673736075</v>
       </c>
       <c r="C14">
-        <v>2.040969488535382</v>
+        <v>2.040969488535154</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04314680015486516</v>
+        <v>0.04314680015494332</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.377884622303725</v>
+        <v>4.377884622303668</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3164932282179578</v>
+        <v>0.316493228217972</v>
       </c>
       <c r="L14">
-        <v>1.274735946960007</v>
+        <v>1.274735946960021</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.510135624191264</v>
+        <v>4.510135624191435</v>
       </c>
       <c r="C15">
-        <v>2.014067879418803</v>
+        <v>2.014067879418462</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04275705645513739</v>
+        <v>0.04275705645505745</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.327590230422658</v>
+        <v>4.327590230422601</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.312492667258212</v>
+        <v>0.3124926672583115</v>
       </c>
       <c r="L15">
-        <v>1.258286303668484</v>
+        <v>1.258286303668456</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.176067604444711</v>
+        <v>4.176067604444881</v>
       </c>
       <c r="C16">
-        <v>1.862464227417547</v>
+        <v>1.862464227417888</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04056414561545552</v>
+        <v>0.0405641456154946</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.044695360165974</v>
+        <v>4.044695360165861</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.289941710828117</v>
+        <v>0.2899417108280744</v>
       </c>
       <c r="L16">
-        <v>1.165495842276059</v>
+        <v>1.165495842276094</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.975343235239166</v>
+        <v>3.975343235239507</v>
       </c>
       <c r="C17">
-        <v>1.771536134513099</v>
+        <v>1.771536134513781</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03925230548426129</v>
+        <v>0.03925230548421688</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2764132927587752</v>
+        <v>0.2764132927587681</v>
       </c>
       <c r="L17">
-        <v>1.109773500305103</v>
+        <v>1.109773500305124</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.861288204445259</v>
+        <v>3.861288204445145</v>
       </c>
       <c r="C18">
-        <v>1.719923261808958</v>
+        <v>1.719923261808788</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0.03850904192238858</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2687340057779934</v>
+        <v>0.2687340057779721</v>
       </c>
       <c r="L18">
         <v>1.078122547755527</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.822897437496863</v>
+        <v>3.822897437496749</v>
       </c>
       <c r="C19">
         <v>1.702559208259117</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03825923136298215</v>
+        <v>0.03825923136290932</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2661505023230077</v>
+        <v>0.2661505023229935</v>
       </c>
       <c r="L19">
-        <v>1.067470856747754</v>
+        <v>1.067470856747761</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.996562902843209</v>
+        <v>3.996562902843039</v>
       </c>
       <c r="C20">
-        <v>1.781142897223162</v>
+        <v>1.78114289722356</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03939076464754621</v>
+        <v>0.03939076464759594</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.277842644477218</v>
+        <v>0.2778426444772464</v>
       </c>
       <c r="L20">
-        <v>1.115663026685361</v>
+        <v>1.115663026685404</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.597823208017473</v>
+        <v>4.597823208017644</v>
       </c>
       <c r="C21">
         <v>2.053917913530881</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04333445124727042</v>
+        <v>0.04333445124732904</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.402102290376746</v>
+        <v>4.402102290376632</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3184186589570288</v>
+        <v>0.3184186589570501</v>
       </c>
       <c r="L21">
-        <v>1.282651832303813</v>
+        <v>1.282651832303799</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.006707494459818</v>
+        <v>5.006707494459761</v>
       </c>
       <c r="C22">
-        <v>2.240050028036876</v>
+        <v>2.240050028036535</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04603536586094314</v>
+        <v>0.04603536586088453</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>4.786830462648879</v>
       </c>
       <c r="C23">
-        <v>2.139893515638278</v>
+        <v>2.139893515637652</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04458128620503921</v>
+        <v>0.04458128620503743</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3312006193709607</v>
+        <v>0.3312006193709252</v>
       </c>
       <c r="L23">
-        <v>1.335182840605</v>
+        <v>1.335182840605015</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.986965340538404</v>
+        <v>3.986965340538518</v>
       </c>
       <c r="C24">
         <v>1.776797632954469</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03932813345189601</v>
+        <v>0.03932813345193686</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.885277030024781</v>
+        <v>3.88527703002481</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2771961306003092</v>
+        <v>0.277196130600295</v>
       </c>
       <c r="L24">
         <v>1.112999183973059</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.176310927717793</v>
+        <v>3.176310927717964</v>
       </c>
       <c r="C25">
-        <v>1.41076559073872</v>
+        <v>1.410765590739118</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03408408427617005</v>
+        <v>0.03408408427623577</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.208380954181592</v>
+        <v>3.208380954181578</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2227517760012176</v>
+        <v>0.2227517760012461</v>
       </c>
       <c r="L25">
-        <v>0.8882436157140603</v>
+        <v>0.888243615714039</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.609893303173806</v>
+        <v>2.582254614303508</v>
       </c>
       <c r="C2">
-        <v>1.156144220891633</v>
+        <v>1.140387374807688</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03048920440405567</v>
+        <v>0.02900653644320705</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007855098932932809</v>
       </c>
       <c r="H2">
-        <v>2.742596600835824</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.760849290882177</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1849458908166852</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7315672606563197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1841281708060833</v>
+      </c>
+      <c r="M2">
+        <v>0.7268293515374395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.239425648243923</v>
+        <v>2.216789305645705</v>
       </c>
       <c r="C3">
-        <v>0.9900867651664953</v>
+        <v>0.977016941233444</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02818049817461521</v>
+        <v>0.02666600690874255</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000796398314610142</v>
       </c>
       <c r="H3">
-        <v>2.44174552842837</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.463762340389181</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1603560986441579</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6293116753233363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1597117446154925</v>
+      </c>
+      <c r="M3">
+        <v>0.6256826504750777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.017040306045658</v>
+        <v>1.997454400628101</v>
       </c>
       <c r="C4">
-        <v>0.8905762898502303</v>
+        <v>0.8791409609115419</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02681521008039667</v>
+        <v>0.02527956114645491</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008032112151411388</v>
       </c>
       <c r="H4">
-        <v>2.262806828952108</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.287073601674933</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1456592513433783</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5680334842017629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1451170123201244</v>
+      </c>
+      <c r="M4">
+        <v>0.5650747984108122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927496368819959</v>
+        <v>1.909152097619568</v>
       </c>
       <c r="C5">
-        <v>0.8505423390796807</v>
+        <v>0.8397713352646576</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02627058541759908</v>
+        <v>0.02472592310989796</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008060228872907743</v>
       </c>
       <c r="H5">
-        <v>2.19114261265932</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.216314661019894</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1397570422622252</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5433851819386035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.139255543243781</v>
+      </c>
+      <c r="M5">
+        <v>0.5406980028107355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.912687507551624</v>
+        <v>1.894549423278477</v>
       </c>
       <c r="C6">
-        <v>0.8439233052917814</v>
+        <v>0.8332625628372057</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02618082176638836</v>
+        <v>0.02463463955120382</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008064919899555446</v>
       </c>
       <c r="H6">
-        <v>2.179313152369133</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.204634921191044</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1387818492467332</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.539310342147246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1382870680900226</v>
+      </c>
+      <c r="M6">
+        <v>0.5366681721237114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.015828558825376</v>
+        <v>1.996259399698033</v>
       </c>
       <c r="C7">
-        <v>0.8900344054651725</v>
+        <v>0.8786080403396568</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02680781929032605</v>
+        <v>0.02527205036553681</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008032489870540314</v>
       </c>
       <c r="H7">
-        <v>2.261835509055445</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.286114532991604</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1455793178239873</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5676998300090759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1450376315054278</v>
+      </c>
+      <c r="M7">
+        <v>0.5647448113872571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.480974264582244</v>
+        <v>2.455067252090942</v>
       </c>
       <c r="C8">
-        <v>1.09831624332503</v>
+        <v>1.083490443618473</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02968142345170577</v>
+        <v>0.02818812883935173</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007892399076097933</v>
       </c>
       <c r="H8">
-        <v>2.637535235415939</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.657100966072861</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1763750654778455</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6959610273497745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1756181626948283</v>
+      </c>
+      <c r="M8">
+        <v>0.6916082862428468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.44380410930512</v>
+        <v>3.405090847950646</v>
       </c>
       <c r="C9">
-        <v>1.53133157472007</v>
+        <v>1.509602065150716</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03580343051126533</v>
+        <v>0.03437971072009383</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007626065333140372</v>
       </c>
       <c r="H9">
-        <v>3.430500522199168</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.44013115746759</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2406783474434064</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9623480924787557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2394530862873694</v>
+      </c>
+      <c r="M9">
+        <v>0.9551168838158404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.199171586544765</v>
+        <v>4.150447437917364</v>
       </c>
       <c r="C10">
-        <v>1.872938140083079</v>
+        <v>1.845788573940979</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0407154346317764</v>
+        <v>0.03933285421351229</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007432686195185653</v>
       </c>
       <c r="H10">
-        <v>4.064208968036155</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.065757212896642</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2914999432898995</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.171911209316292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2898811812249562</v>
+      </c>
+      <c r="M10">
+        <v>1.162385856885706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.557994306688386</v>
+        <v>4.504471322971881</v>
       </c>
       <c r="C11">
-        <v>2.035814560030929</v>
+        <v>2.00606176809822</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04307210417055174</v>
+        <v>0.04170555334586723</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007344434925563259</v>
       </c>
       <c r="H11">
-        <v>4.368245012502342</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.36583685761093</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3157266643974026</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.271584218405209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3139116405402049</v>
+      </c>
+      <c r="M11">
+        <v>1.260946950500937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.696552387730435</v>
+        <v>4.64116415632401</v>
       </c>
       <c r="C12">
-        <v>2.098814109803016</v>
+        <v>2.068048785800443</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0439853669323611</v>
+        <v>0.04262443925022907</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007310895984072495</v>
       </c>
       <c r="H12">
-        <v>4.486120090730935</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.482161269820864</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3250939548568752</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.310089766998203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3232013907082418</v>
+      </c>
+      <c r="M12">
+        <v>1.299018311642456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.666583303422271</v>
+        <v>4.611599165691416</v>
       </c>
       <c r="C13">
-        <v>2.085182772414328</v>
+        <v>2.054636836488214</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04378769361937351</v>
+        <v>0.04242557593948071</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007318125970675646</v>
       </c>
       <c r="H13">
-        <v>4.46060297278467</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.456980679940926</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3230673395778538</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.301760557393621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.321191632362293</v>
+      </c>
+      <c r="M13">
+        <v>1.290783258703158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.569336673736075</v>
+        <v>4.515661283819213</v>
       </c>
       <c r="C14">
-        <v>2.040969488535154</v>
+        <v>2.011133977727866</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04314680015494332</v>
+        <v>0.0417807213210093</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007341678574210432</v>
       </c>
       <c r="H14">
-        <v>4.377884622303668</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.375350026642423</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.316493228217972</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.274735946960021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.314671894587228</v>
+      </c>
+      <c r="M14">
+        <v>1.264063243568771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.510135624191435</v>
+        <v>4.45725518396506</v>
       </c>
       <c r="C15">
-        <v>2.014067879418462</v>
+        <v>1.984663802415241</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04275705645505745</v>
+        <v>0.04138849098047537</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007356086960084643</v>
       </c>
       <c r="H15">
-        <v>4.327590230422601</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.325714628873897</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3124926672583115</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.258286303668456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3107041942125832</v>
+      </c>
+      <c r="M15">
+        <v>1.247798350115431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.176067604444881</v>
+        <v>4.127651124660645</v>
       </c>
       <c r="C16">
-        <v>1.862464227417888</v>
+        <v>1.835481465527494</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0405641456154946</v>
+        <v>0.03918045879676235</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007438441486148381</v>
       </c>
       <c r="H16">
-        <v>4.044695360165861</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.046495562040121</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2899417108280744</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.165495842276094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2883353690226045</v>
+      </c>
+      <c r="M16">
+        <v>1.156041518925299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.975343235239507</v>
+        <v>3.929594443359917</v>
       </c>
       <c r="C17">
-        <v>1.771536134513781</v>
+        <v>1.745999125772812</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03925230548421688</v>
+        <v>0.03785861657800105</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007488839064164754</v>
       </c>
       <c r="H17">
-        <v>3.875496853027244</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.879472653798814</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2764132927587681</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.109773500305124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2749137970935678</v>
+      </c>
+      <c r="M17">
+        <v>1.100933695135716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.861288204445145</v>
+        <v>3.817051689320181</v>
       </c>
       <c r="C18">
-        <v>1.719923261808788</v>
+        <v>1.695205367183405</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03850904192238858</v>
+        <v>0.03710935188180464</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007517805410827297</v>
       </c>
       <c r="H18">
-        <v>3.779628381734426</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.784830096882786</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2687340057779721</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.078122547755527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2672943950962576</v>
+      </c>
+      <c r="M18">
+        <v>1.069630010777956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.822897437496749</v>
+        <v>3.779169493727863</v>
       </c>
       <c r="C19">
-        <v>1.702559208259117</v>
+        <v>1.678116697405585</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03825923136290932</v>
+        <v>0.0368574683891012</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007527611495202691</v>
       </c>
       <c r="H19">
-        <v>3.747404897496978</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.753017641272237</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2661505023229935</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.067470856747761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2647309173886399</v>
+      </c>
+      <c r="M19">
+        <v>1.059094923213209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.996562902843039</v>
+        <v>3.950532501160524</v>
       </c>
       <c r="C20">
-        <v>1.78114289722356</v>
+        <v>1.755453318207969</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03939076464759594</v>
+        <v>0.03799816655306998</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007483476858383105</v>
       </c>
       <c r="H20">
-        <v>3.893355078253279</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.897101993653848</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2778426444772464</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.115663026685404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2763319420802048</v>
+      </c>
+      <c r="M20">
+        <v>1.106758466453115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.597823208017644</v>
+        <v>4.543764830714224</v>
       </c>
       <c r="C21">
-        <v>2.053917913530881</v>
+        <v>2.023874524546386</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04333445124732904</v>
+        <v>0.04196954860655211</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007334764575226416</v>
       </c>
       <c r="H21">
-        <v>4.402102290376632</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.399249749672975</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3184186589570501</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.282651832303799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3165814488065308</v>
+      </c>
+      <c r="M21">
+        <v>1.271890049176491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.006707494459761</v>
+        <v>4.947113621863537</v>
       </c>
       <c r="C22">
-        <v>2.240050028036535</v>
+        <v>2.207000523901911</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04603536586088453</v>
+        <v>0.04468591587702697</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007236823458065559</v>
       </c>
       <c r="H22">
-        <v>4.750881185183204</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.743401408381601</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3460841415121507</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.396312396149312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3440142619319815</v>
+      </c>
+      <c r="M22">
+        <v>1.38425801625776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.786830462648879</v>
+        <v>4.730222640940838</v>
       </c>
       <c r="C23">
-        <v>2.139893515637652</v>
+        <v>2.10846596465575</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04458128620503743</v>
+        <v>0.04322385641015636</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007289195580799253</v>
       </c>
       <c r="H23">
-        <v>4.563058183733261</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.558081763847269</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3312006193709252</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.335182840605015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3292569859647827</v>
+      </c>
+      <c r="M23">
+        <v>1.323826904393556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.986965340538518</v>
+        <v>3.941062320330616</v>
       </c>
       <c r="C24">
-        <v>1.776797632954469</v>
+        <v>1.751177067975902</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03932813345193686</v>
+        <v>0.03793504297632389</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007485901129848553</v>
       </c>
       <c r="H24">
-        <v>3.88527703002481</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.889127501024831</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.277196130600295</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.112999183973059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2756904995071068</v>
+      </c>
+      <c r="M24">
+        <v>1.104123918007161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.176310927717964</v>
+        <v>3.141135995206582</v>
       </c>
       <c r="C25">
-        <v>1.410765590739118</v>
+        <v>1.390947451163015</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03408408427623577</v>
+        <v>0.03264315310446797</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925418</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007697482593085836</v>
       </c>
       <c r="H25">
-        <v>3.208380954181578</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.22080604414819</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2227517760012461</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.888243615714039</v>
+        <v>0.2216600754659623</v>
+      </c>
+      <c r="M25">
+        <v>0.8818144159357075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.582254614303508</v>
+        <v>3.02917998008553</v>
       </c>
       <c r="C2">
-        <v>1.140387374807688</v>
+        <v>0.7721268034277102</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02900653644320705</v>
+        <v>1.445124317767394</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007855098932932809</v>
+        <v>0.0007672189653661781</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.760849290882177</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8564843761953682</v>
       </c>
       <c r="L2">
-        <v>0.1841281708060833</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7268293515374395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.6085790171084611</v>
+      </c>
+      <c r="O2">
+        <v>1.165912190604757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.216789305645705</v>
+        <v>2.604604012383732</v>
       </c>
       <c r="C3">
-        <v>0.977016941233444</v>
+        <v>0.6634845405322665</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02666600690874255</v>
+        <v>1.232233932232162</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.000796398314610142</v>
+        <v>0.0007760357205039489</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.463762340389181</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7358664416331067</v>
       </c>
       <c r="L3">
-        <v>0.1597117446154925</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6256826504750777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.6553234756623851</v>
+      </c>
+      <c r="O3">
+        <v>1.038790142459447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.997454400628101</v>
+        <v>2.348883115431647</v>
       </c>
       <c r="C4">
-        <v>0.8791409609115419</v>
+        <v>0.5980740502235733</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02527956114645491</v>
+        <v>1.105362854823824</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008032112151411388</v>
+        <v>0.0007815499987206945</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.287073601674933</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6632216173020637</v>
       </c>
       <c r="L4">
-        <v>0.1451170123201244</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5650747984108122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.6858814166016494</v>
+      </c>
+      <c r="O4">
+        <v>0.9647647818298282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.909152097619568</v>
+        <v>2.245727401309239</v>
       </c>
       <c r="C5">
-        <v>0.8397713352646576</v>
+        <v>0.5716882641003167</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02472592310989796</v>
+        <v>1.054467159517287</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008060228872907743</v>
+        <v>0.0007838251442652621</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.216314661019894</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6339164231600947</v>
       </c>
       <c r="L5">
-        <v>0.139255543243781</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5406980028107355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.6987696815590319</v>
+      </c>
+      <c r="O5">
+        <v>0.9354907230315774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.894549423278477</v>
+        <v>2.228656679863207</v>
       </c>
       <c r="C6">
-        <v>0.8332625628372057</v>
+        <v>0.5673216714583589</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02463463955120382</v>
+        <v>1.046060258893846</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008064919899555446</v>
+        <v>0.0007842046969937572</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.204634921191044</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6290667575942166</v>
       </c>
       <c r="L6">
-        <v>0.1382870680900226</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5366681721237114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.7009352313301669</v>
+      </c>
+      <c r="O6">
+        <v>0.9306803608717473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.996259399698033</v>
+        <v>2.347487904764023</v>
       </c>
       <c r="C7">
-        <v>0.8786080403396568</v>
+        <v>0.5977171810309869</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02527205036553681</v>
+        <v>1.104673396051595</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008032489870540314</v>
+        <v>0.0007815805652946405</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.286114532991604</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6628252616618653</v>
       </c>
       <c r="L7">
-        <v>0.1450376315054278</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5647448113872571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.6860535071014411</v>
+      </c>
+      <c r="O7">
+        <v>0.9643665209996186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.455067252090942</v>
+        <v>2.881628829331987</v>
       </c>
       <c r="C8">
-        <v>1.083490443618473</v>
+        <v>0.7343618232486051</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02818812883935173</v>
+        <v>1.370818017533168</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007892399076097933</v>
+        <v>0.0007702397891256446</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.657100966072861</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8145648223163988</v>
       </c>
       <c r="L8">
-        <v>0.1756181626948283</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6916082862428468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.624291275575203</v>
+      </c>
+      <c r="O8">
+        <v>1.121167343483222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.405090847950646</v>
+        <v>3.978746363825962</v>
       </c>
       <c r="C9">
-        <v>1.509602065150716</v>
+        <v>1.015554757469232</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03437971072009383</v>
+        <v>1.93178446498716</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007626065333140372</v>
+        <v>0.0007486602735299988</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.44013115746759</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.126350305324351</v>
       </c>
       <c r="L9">
-        <v>0.2394530862873694</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9551168838158404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5195173477422941</v>
+      </c>
+      <c r="O9">
+        <v>1.466882881117286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.150447437917364</v>
+        <v>4.8318599396124</v>
       </c>
       <c r="C10">
-        <v>1.845788573940979</v>
+        <v>1.235091982927656</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03933285421351229</v>
+        <v>2.382169685981836</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007432686195185653</v>
+        <v>0.0007329786033252848</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.065757212896642</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.369017952286129</v>
       </c>
       <c r="L10">
-        <v>0.2898811812249562</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.162385856885706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.455133835797696</v>
+      </c>
+      <c r="O10">
+        <v>1.754468045039502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.504471322971881</v>
+        <v>5.234830944822988</v>
       </c>
       <c r="C11">
-        <v>2.00606176809822</v>
+        <v>1.339144089048602</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04170555334586723</v>
+        <v>2.599532970310776</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007344434925563259</v>
+        <v>0.0007258183824727651</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.36583685761093</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.483736043658212</v>
       </c>
       <c r="L11">
-        <v>0.3139116405402049</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.260946950500937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.4293102602872381</v>
+      </c>
+      <c r="O11">
+        <v>1.895448113607443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.64116415632401</v>
+        <v>5.390045901466408</v>
       </c>
       <c r="C12">
-        <v>2.068048785800443</v>
+        <v>1.379290333248321</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04262443925022907</v>
+        <v>2.684084520212025</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007310895984072495</v>
+        <v>0.0007230965659310619</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.482161269820864</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.527940859074491</v>
       </c>
       <c r="L12">
-        <v>0.3232013907082418</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.299018311642456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.4201059650286609</v>
+      </c>
+      <c r="O12">
+        <v>1.95059036099984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.611599165691416</v>
+        <v>5.356492479118913</v>
       </c>
       <c r="C13">
-        <v>2.054636836488214</v>
+        <v>1.37060844438804</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04242557593948071</v>
+        <v>2.665766946006883</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007318125970675646</v>
+        <v>0.0007236833394143554</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.456980679940926</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.518384043331253</v>
       </c>
       <c r="L13">
-        <v>0.321191632362293</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.290783258703158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.4220613427500837</v>
+      </c>
+      <c r="O13">
+        <v>1.938631033356231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.515661283819213</v>
+        <v>5.247545014350237</v>
       </c>
       <c r="C14">
-        <v>2.011133977727866</v>
+        <v>1.34243111289436</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0417807213210093</v>
+        <v>2.606441243531265</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007341678574210432</v>
+        <v>0.0007255947078505259</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.375350026642423</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.487356586458588</v>
       </c>
       <c r="L14">
-        <v>0.314671894587228</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.264063243568771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.4285410115594459</v>
+      </c>
+      <c r="O14">
+        <v>1.899947597285035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.45725518396506</v>
+        <v>5.181168362025005</v>
       </c>
       <c r="C15">
-        <v>1.984663802415241</v>
+        <v>1.325273298629384</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04138849098047537</v>
+        <v>2.570409344377083</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007356086960084643</v>
+        <v>0.000726763904224658</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.325714628873897</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.468455487182325</v>
       </c>
       <c r="L15">
-        <v>0.3107041942125832</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.247798350115431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.432587338734038</v>
+      </c>
+      <c r="O15">
+        <v>1.876491362145899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.127651124660645</v>
+        <v>4.80586316346961</v>
       </c>
       <c r="C16">
-        <v>1.835481465527494</v>
+        <v>1.228387641614461</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03918045879676235</v>
+        <v>2.368251515520242</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007438441486148381</v>
+        <v>0.0007334454732746964</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.046495562040121</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.361619390681824</v>
       </c>
       <c r="L16">
-        <v>0.2883353690226045</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.156041518925299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.4568973785030437</v>
+      </c>
+      <c r="O16">
+        <v>1.745483016079348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.929594443359917</v>
+        <v>4.579750331924288</v>
       </c>
       <c r="C17">
-        <v>1.745999125772812</v>
+        <v>1.170115545988779</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03785861657800105</v>
+        <v>2.247718112827087</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007488839064164754</v>
+        <v>0.0007375333124916646</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.879472653798814</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.297279428670151</v>
       </c>
       <c r="L17">
-        <v>0.2749137970935678</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.100933695135716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4727480425848469</v>
+      </c>
+      <c r="O17">
+        <v>1.667907829876839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817051689320181</v>
+        <v>4.451063886518511</v>
       </c>
       <c r="C18">
-        <v>1.695205367183405</v>
+        <v>1.136982742089202</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03710935188180464</v>
+        <v>2.179533443445507</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007517805410827297</v>
+        <v>0.0007398824914385941</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.784830096882786</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.260670207086662</v>
       </c>
       <c r="L18">
-        <v>0.2672943950962576</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.069630010777956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.4821857159281961</v>
+      </c>
+      <c r="O18">
+        <v>1.624223887644121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.779169493727863</v>
+        <v>4.407714653110077</v>
       </c>
       <c r="C19">
-        <v>1.678116697405585</v>
+        <v>1.125826570167732</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0368574683891012</v>
+        <v>2.156631568438669</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007527611495202691</v>
+        <v>0.0007406777129659547</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.753017641272237</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.248339341177854</v>
       </c>
       <c r="L19">
-        <v>0.2647309173886399</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.059094923213209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.4854341538672386</v>
+      </c>
+      <c r="O19">
+        <v>1.609585784226624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.950532501160524</v>
+        <v>4.603675706797446</v>
       </c>
       <c r="C20">
-        <v>1.755453318207969</v>
+        <v>1.176278050964413</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03799816655306998</v>
+        <v>2.260427890907962</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007483476858383105</v>
+        <v>0.000737098409481884</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.897101993653848</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.304086459070021</v>
       </c>
       <c r="L20">
-        <v>0.2763319420802048</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.106758466453115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.4710270054721519</v>
+      </c>
+      <c r="O20">
+        <v>1.676067085100229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.543764830714224</v>
+        <v>5.279470174347296</v>
       </c>
       <c r="C21">
-        <v>2.023874524546386</v>
+        <v>1.350686004505576</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04196954860655211</v>
+        <v>2.623801755297407</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007334764575226416</v>
+        <v>0.0007250336338238518</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.399249749672975</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.496448111899042</v>
       </c>
       <c r="L21">
-        <v>0.3165814488065308</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.271890049176491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.4266214993300537</v>
+      </c>
+      <c r="O21">
+        <v>1.911259545700545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.947113621863537</v>
+        <v>5.736699700305621</v>
       </c>
       <c r="C22">
-        <v>2.207000523901911</v>
+        <v>1.469097273589909</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04468591587702697</v>
+        <v>2.874636749027374</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007236823458065559</v>
+        <v>0.0007170839081306335</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.743401408381601</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.62670588919697</v>
       </c>
       <c r="L22">
-        <v>0.3440142619319815</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.38425801625776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.4009959515689587</v>
+      </c>
+      <c r="O22">
+        <v>2.07539105000555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.730222640940838</v>
+        <v>5.491059943232813</v>
       </c>
       <c r="C23">
-        <v>2.10846596465575</v>
+        <v>1.405438786686375</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04322385641015636</v>
+        <v>2.739363891603602</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007289195580799253</v>
+        <v>0.0007213352905717127</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.558081763847269</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.556715084724146</v>
       </c>
       <c r="L23">
-        <v>0.3292569859647827</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.323826904393556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.4143326617304552</v>
+      </c>
+      <c r="O23">
+        <v>1.986723505130911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.941062320330616</v>
+        <v>4.592855002920658</v>
       </c>
       <c r="C24">
-        <v>1.751177067975902</v>
+        <v>1.173490844709619</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03793504297632389</v>
+        <v>2.254678370147559</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.0007485901129848553</v>
+        <v>0.0007372950316903644</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.889127501024831</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.301007825181529</v>
       </c>
       <c r="L24">
-        <v>0.2756904995071068</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.104123918007161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.4718040798700187</v>
+      </c>
+      <c r="O24">
+        <v>1.672375457120964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.141135995206582</v>
+        <v>3.675055305958381</v>
       </c>
       <c r="C25">
-        <v>1.390947451163015</v>
+        <v>0.9376127042928033</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03264315310446797</v>
+        <v>1.774515530101056</v>
       </c>
       <c r="F25">
-        <v>1.757113814925418</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.0007697482593085836</v>
+        <v>0.0007544489761719917</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.22080604414819</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.040019645518001</v>
       </c>
       <c r="L25">
-        <v>0.2216600754659623</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8818144159357075</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5458656538433431</v>
+      </c>
+      <c r="O25">
+        <v>1.368301657426088</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.02917998008553</v>
+        <v>1.09509825258354</v>
       </c>
       <c r="C2">
-        <v>0.7721268034277102</v>
+        <v>0.1884542569827516</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.445124317767394</v>
+        <v>1.391411740334803</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007672189653661781</v>
+        <v>0.1227530574542968</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1547910532349377</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1161764540521038</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8564843761953682</v>
+        <v>1.205631239478549</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6085790171084611</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.165912190604757</v>
+        <v>0.5340518786398292</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.604604012383732</v>
+        <v>0.9577899393565872</v>
       </c>
       <c r="C3">
-        <v>0.6634845405322665</v>
+        <v>0.1688273267337621</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.232233932232162</v>
+        <v>1.197321293663308</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007760357205039489</v>
+        <v>0.1247746137540346</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1619542114694497</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1266000294568244</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7358664416331067</v>
+        <v>1.058521511848909</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6553234756623851</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.038790142459447</v>
+        <v>0.552987767285309</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.348883115431647</v>
+        <v>0.8734269284441325</v>
       </c>
       <c r="C4">
-        <v>0.5980740502235733</v>
+        <v>0.1567765225850906</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.105362854823824</v>
+        <v>1.079967573903502</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007815499987206945</v>
+        <v>0.1267451661541728</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1668077242887236</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1335437152598304</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6632216173020637</v>
+        <v>0.9681310823658009</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6858814166016494</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9647647818298282</v>
+        <v>0.5671065843470515</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.245727401309239</v>
+        <v>0.8390255408232576</v>
       </c>
       <c r="C5">
-        <v>0.5716882641003167</v>
+        <v>0.1518641070231865</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.054467159517287</v>
+        <v>1.032534059281758</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007838251442652621</v>
+        <v>0.1277208892757287</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1688955226208968</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1365042358232644</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6339164231600947</v>
+        <v>0.9312700134285308</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6987696815590319</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9354907230315774</v>
+        <v>0.5734546041039934</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.228656679863207</v>
+        <v>0.8333115932106807</v>
       </c>
       <c r="C6">
-        <v>0.5673216714583589</v>
+        <v>0.1510482604006569</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.046060258893846</v>
+        <v>1.024679359964708</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007842046969937572</v>
+        <v>0.1278930369068618</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1692487126894306</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1370035714893483</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6290667575942166</v>
+        <v>0.9251473977727471</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7009352313301669</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9306803608717473</v>
+        <v>0.5745436853862103</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.347487904764023</v>
+        <v>0.8729630828191546</v>
       </c>
       <c r="C7">
-        <v>0.5977171810309869</v>
+        <v>0.156710280678638</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.104673396051595</v>
+        <v>1.079326380106366</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007815805652946405</v>
+        <v>0.1267576395139685</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.166835441693145</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1335831192321386</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6628252616618653</v>
+        <v>0.9676340800352534</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6860535071014411</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9643665209996186</v>
+        <v>0.5671898301646507</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.881628829331987</v>
+        <v>1.04776018666783</v>
       </c>
       <c r="C8">
-        <v>0.7343618232486051</v>
+        <v>0.1816857961157297</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.370818017533168</v>
+        <v>1.324069187425849</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007702397891256446</v>
+        <v>0.1232921107252807</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1571636055312098</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1196541215077627</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8145648223163988</v>
+        <v>1.154914872654558</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.624291275575203</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.121167343483222</v>
+        <v>0.5400438309030449</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.978746363825962</v>
+        <v>1.3905515245049</v>
       </c>
       <c r="C9">
-        <v>1.015554757469232</v>
+        <v>0.2307491188089159</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.93178446498716</v>
+        <v>1.821815498921609</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007486602735299988</v>
+        <v>0.1227949449255874</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1420266920156621</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.09692696505103449</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.126350305324351</v>
+        <v>1.522169546190611</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5195173477422941</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.466882881117286</v>
+        <v>0.5081249996852506</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.8318599396124</v>
+        <v>1.643116472743259</v>
       </c>
       <c r="C10">
-        <v>1.235091982927656</v>
+        <v>0.2669817096754343</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.382169685981836</v>
+        <v>2.203571522775576</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007329786033252848</v>
+        <v>0.1270311626600034</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1335619953469234</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.08343127739488665</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.369017952286129</v>
+        <v>1.792786567282263</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.455133835797696</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.754468045039502</v>
+        <v>0.4999581845959682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.234830944822988</v>
+        <v>1.758344813013224</v>
       </c>
       <c r="C11">
-        <v>1.339144089048602</v>
+        <v>0.2835386176795822</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.599532970310776</v>
+        <v>2.382043070896842</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007258183824727651</v>
+        <v>0.1301416927907511</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1303657391952768</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0780843092015715</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.483736043658212</v>
+        <v>1.916267117070987</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4293102602872381</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.895448113607443</v>
+        <v>0.5001153401902201</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.390045901466408</v>
+        <v>1.802042493452774</v>
       </c>
       <c r="C12">
-        <v>1.379290333248321</v>
+        <v>0.2898220556498927</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.684084520212025</v>
+        <v>2.450440749898192</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007230965659310619</v>
+        <v>0.1315065945119827</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1292566210801951</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.07618235898424075</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.527940859074491</v>
+        <v>1.963097599814802</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4201059650286609</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.95059036099984</v>
+        <v>0.5007823428057492</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.356492479118913</v>
+        <v>1.792628351020596</v>
       </c>
       <c r="C13">
-        <v>1.37060844438804</v>
+        <v>0.2884681447904569</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.665766946006883</v>
+        <v>2.435671756839881</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007236833394143554</v>
+        <v>0.1312040376081072</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1294908669578732</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.076586365659157</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.518384043331253</v>
+        <v>1.95300836649551</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4220613427500837</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.938631033356231</v>
+        <v>0.5006108203825477</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.247545014350237</v>
+        <v>1.761938489778601</v>
       </c>
       <c r="C14">
-        <v>1.34243111289436</v>
+        <v>0.2840552671885206</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.606441243531265</v>
+        <v>2.387653113272549</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007255947078505259</v>
+        <v>0.1302501345326021</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1302724194582439</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.07792531937034397</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.487356586458588</v>
+        <v>1.920118360825484</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4285410115594459</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.899947597285035</v>
+        <v>0.5001577342616912</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.181168362025005</v>
+        <v>1.743148764229232</v>
       </c>
       <c r="C15">
-        <v>1.325273298629384</v>
+        <v>0.2813541298278324</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.570409344377083</v>
+        <v>2.358350251670259</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.000726763904224658</v>
+        <v>0.1296907198577273</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1307645487441178</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0787617396878364</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.468455487182325</v>
+        <v>1.899982074214734</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.432587338734038</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.876491362145899</v>
+        <v>0.4999608963614719</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.80586316346961</v>
+        <v>1.635594026842767</v>
       </c>
       <c r="C16">
-        <v>1.228387641614461</v>
+        <v>0.2659014239104351</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.368251515520242</v>
+        <v>2.192014941127226</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007334454732746964</v>
+        <v>0.1268531030236844</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1337846424898714</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08379740206793329</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.361619390681824</v>
+        <v>1.784725802315393</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4568973785030437</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.745483016079348</v>
+        <v>0.5000300685793775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.579750331924288</v>
+        <v>1.569708791231079</v>
       </c>
       <c r="C17">
-        <v>1.170115545988779</v>
+        <v>0.2564427980275212</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.247718112827087</v>
+        <v>2.091288393978374</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007375333124916646</v>
+        <v>0.1254269646543946</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1358098671538173</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.08709565614202219</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.297279428670151</v>
+        <v>1.714127636868795</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4727480425848469</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.667907829876839</v>
+        <v>0.5010990157838364</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.451063886518511</v>
+        <v>1.531843926986738</v>
       </c>
       <c r="C18">
-        <v>1.136982742089202</v>
+        <v>0.2510092644228337</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.179533443445507</v>
+        <v>2.033797643071736</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007398824914385941</v>
+        <v>0.1247169919583158</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1370358550533908</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.08906672578847719</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.260670207086662</v>
+        <v>1.673555668315032</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4821857159281961</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.624223887644121</v>
+        <v>0.5020750498967743</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.407714653110077</v>
+        <v>1.519028352235324</v>
       </c>
       <c r="C19">
-        <v>1.125826570167732</v>
+        <v>0.2491706485704839</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.156631568438669</v>
+        <v>2.014405084569603</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007406777129659547</v>
+        <v>0.1244950622200989</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.137461245127632</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.08974654600728371</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.248339341177854</v>
+        <v>1.659824081541615</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4854341538672386</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.609585784226624</v>
+        <v>0.5024660801604313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.603675706797446</v>
+        <v>1.57671911781793</v>
       </c>
       <c r="C20">
-        <v>1.176278050964413</v>
+        <v>0.2574489586981201</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.260427890907962</v>
+        <v>2.101964057439289</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.000737098409481884</v>
+        <v>0.1255672460057866</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.13558790176873</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0867368302909366</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.304086459070021</v>
+        <v>1.721639270969717</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4710270054721519</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.676067085100229</v>
+        <v>0.5009474878058171</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.279470174347296</v>
+        <v>1.770951003991883</v>
       </c>
       <c r="C21">
-        <v>1.350686004505576</v>
+        <v>0.2853510392415899</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.623801755297407</v>
+        <v>2.401734200966445</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007250336338238518</v>
+        <v>0.1305251022355804</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1300400511895958</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.07752862812915673</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.496448111899042</v>
+        <v>1.929776879366273</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4266214993300537</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.911259545700545</v>
+        <v>0.5002739042480187</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.736699700305621</v>
+        <v>1.898269193538312</v>
       </c>
       <c r="C22">
-        <v>1.469097273589909</v>
+        <v>0.3036681165819175</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.874636749027374</v>
+        <v>2.602465779632922</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007170839081306335</v>
+        <v>0.1348642741083736</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1270080424250821</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.07223114670746966</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.62670588919697</v>
+        <v>2.066230284356521</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4009959515689587</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.07539105000555</v>
+        <v>0.503401317701659</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.491059943232813</v>
+        <v>1.830277308659845</v>
       </c>
       <c r="C23">
-        <v>1.405438786686375</v>
+        <v>0.2938834237156556</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.739363891603602</v>
+        <v>2.494846624206986</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007213352905717127</v>
+        <v>0.1324418784779056</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1285694281019687</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.07498944473818803</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.556715084724146</v>
+        <v>1.993357705592274</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4143326617304552</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.986723505130911</v>
+        <v>0.5013878267567407</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.592855002920658</v>
+        <v>1.573549708435991</v>
       </c>
       <c r="C24">
-        <v>1.173490844709619</v>
+        <v>0.2569940601109693</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.254678370147559</v>
+        <v>2.097136296238503</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007372950316903644</v>
+        <v>0.1255034836445574</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1356880607968947</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.08689882295221807</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.301007825181529</v>
+        <v>1.718243213071503</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4718040798700187</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.672375457120964</v>
+        <v>0.5010148714469551</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.675055305958381</v>
+        <v>1.297746378315821</v>
       </c>
       <c r="C25">
-        <v>0.9376127042928033</v>
+        <v>0.2174539690726505</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.774515530101056</v>
+        <v>1.684749524840399</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007544489761719917</v>
+        <v>0.1221799097072775</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1456798641539976</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1025440126537802</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.040019645518001</v>
+        <v>1.422739600765169</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5458656538433431</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.368301657426088</v>
+        <v>0.5142518695006544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.09509825258354</v>
+        <v>0.3483199873666081</v>
       </c>
       <c r="C2">
-        <v>0.1884542569827516</v>
+        <v>0.07766027381389051</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.391411740334803</v>
+        <v>0.4214918725342187</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1227530574542968</v>
+        <v>0.2517007221420897</v>
       </c>
       <c r="H2">
-        <v>0.1547910532349377</v>
+        <v>0.4426920784174513</v>
       </c>
       <c r="I2">
-        <v>0.1161764540521038</v>
+        <v>0.3261503604462632</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.205631239478549</v>
+        <v>0.3790457237252554</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5340518786398292</v>
+        <v>1.307428150239318</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9577899393565872</v>
+        <v>0.3041225684244182</v>
       </c>
       <c r="C3">
-        <v>0.1688273267337621</v>
+        <v>0.07123906844635997</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.197321293663308</v>
+        <v>0.3678202120443927</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1247746137540346</v>
+        <v>0.2562701936192191</v>
       </c>
       <c r="H3">
-        <v>0.1619542114694497</v>
+        <v>0.4485126668844259</v>
       </c>
       <c r="I3">
-        <v>0.1266000294568244</v>
+        <v>0.3326743421453919</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.058521511848909</v>
+        <v>0.3313300743348293</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.552987767285309</v>
+        <v>1.329078728740186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8734269284441325</v>
+        <v>0.2768875659509717</v>
       </c>
       <c r="C4">
-        <v>0.1567765225850906</v>
+        <v>0.0672741386793092</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.079967573903502</v>
+        <v>0.3349375038587254</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1267451661541728</v>
+        <v>0.2593547557453135</v>
       </c>
       <c r="H4">
-        <v>0.1668077242887236</v>
+        <v>0.4523321796906146</v>
       </c>
       <c r="I4">
-        <v>0.1335437152598304</v>
+        <v>0.3369324167165537</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9681310823658009</v>
+        <v>0.3019030122952699</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5671065843470515</v>
+        <v>1.343470494376788</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8390255408232576</v>
+        <v>0.2657652826387391</v>
       </c>
       <c r="C5">
-        <v>0.1518641070231865</v>
+        <v>0.06565288561210991</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.032534059281758</v>
+        <v>0.3215542924570798</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1277208892757287</v>
+        <v>0.260681616736008</v>
       </c>
       <c r="H5">
-        <v>0.1688955226208968</v>
+        <v>0.4539503894675541</v>
       </c>
       <c r="I5">
-        <v>0.1365042358232644</v>
+        <v>0.3387309529775084</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9312700134285308</v>
+        <v>0.2898794577183423</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5734546041039934</v>
+        <v>1.349610784280223</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8333115932106807</v>
+        <v>0.2639170206162476</v>
       </c>
       <c r="C6">
-        <v>0.1510482604006569</v>
+        <v>0.06538334757070174</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.024679359964708</v>
+        <v>0.3193329940751966</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1278930369068618</v>
+        <v>0.260906154002523</v>
       </c>
       <c r="H6">
-        <v>0.1692487126894306</v>
+        <v>0.4542228188944968</v>
       </c>
       <c r="I6">
-        <v>0.1370035714893483</v>
+        <v>0.339033420615225</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9251473977727471</v>
+        <v>0.287881058365997</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5745436853862103</v>
+        <v>1.350646997576206</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8729630828191546</v>
+        <v>0.276737662317089</v>
       </c>
       <c r="C7">
-        <v>0.156710280678638</v>
+        <v>0.06725229609048711</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.079326380106366</v>
+        <v>0.3347569470696925</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1267576395139685</v>
+        <v>0.2593723676623974</v>
       </c>
       <c r="H7">
-        <v>0.166835441693145</v>
+        <v>0.4523537535601143</v>
       </c>
       <c r="I7">
-        <v>0.1335831192321386</v>
+        <v>0.3369564161091212</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9676340800352534</v>
+        <v>0.3017409861228941</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5671898301646507</v>
+        <v>1.3435521897065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.04776018666783</v>
+        <v>0.333101408955315</v>
       </c>
       <c r="C8">
-        <v>0.1816857961157297</v>
+        <v>0.07545091995275754</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.324069187425849</v>
+        <v>0.4029701469637672</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1232921107252807</v>
+        <v>0.2532182415693995</v>
       </c>
       <c r="H8">
-        <v>0.1571636055312098</v>
+        <v>0.4446480077171771</v>
       </c>
       <c r="I8">
-        <v>0.1196541215077627</v>
+        <v>0.3283473927233533</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.154914872654558</v>
+        <v>0.3626206814189459</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5400438309030449</v>
+        <v>1.314664957135392</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.3905515245049</v>
+        <v>0.4428285929688229</v>
       </c>
       <c r="C9">
-        <v>0.2307491188089159</v>
+        <v>0.09134832867559339</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.821815498921609</v>
+        <v>0.5373724907827011</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1227949449255874</v>
+        <v>0.2433741370383586</v>
       </c>
       <c r="H9">
-        <v>0.1420266920156621</v>
+        <v>0.431487970616601</v>
       </c>
       <c r="I9">
-        <v>0.09692696505103449</v>
+        <v>0.3134719984428695</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.522169546190611</v>
+        <v>0.4809503835636235</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5081249996852506</v>
+        <v>1.266758966179779</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.643116472743259</v>
+        <v>0.5229271360309156</v>
       </c>
       <c r="C10">
-        <v>0.2669817096754343</v>
+        <v>0.1029151245213171</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.203571522775576</v>
+        <v>0.6366061295298806</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1270311626600034</v>
+        <v>0.2375130128124638</v>
       </c>
       <c r="H10">
-        <v>0.1335619953469234</v>
+        <v>0.4230109194674512</v>
       </c>
       <c r="I10">
-        <v>0.08343127739488665</v>
+        <v>0.3037727442139211</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.792786567282263</v>
+        <v>0.5672146765993773</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4999581845959682</v>
+        <v>1.236929569081298</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.758344813013224</v>
+        <v>0.5592479070427316</v>
       </c>
       <c r="C11">
-        <v>0.2835386176795822</v>
+        <v>0.1081520041497157</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.382043070896842</v>
+        <v>0.6818782999108919</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1301416927907511</v>
+        <v>0.2351477268900055</v>
       </c>
       <c r="H11">
-        <v>0.1303657391952768</v>
+        <v>0.4194137397873661</v>
       </c>
       <c r="I11">
-        <v>0.0780843092015715</v>
+        <v>0.2996286515988071</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.916267117070987</v>
+        <v>0.6063068645489977</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5001153401902201</v>
+        <v>1.224532973981908</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.802042493452774</v>
+        <v>0.5729842494943966</v>
       </c>
       <c r="C12">
-        <v>0.2898220556498927</v>
+        <v>0.1101314162769</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.450440749898192</v>
+        <v>0.6990420370345873</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1315065945119827</v>
+        <v>0.2342956078055352</v>
       </c>
       <c r="H12">
-        <v>0.1292566210801951</v>
+        <v>0.4180888861583938</v>
       </c>
       <c r="I12">
-        <v>0.07618235898424075</v>
+        <v>0.298098071865498</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.963097599814802</v>
+        <v>0.6210878540784392</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5007823428057492</v>
+        <v>1.220008065970717</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.792628351020596</v>
+        <v>0.5700266753715084</v>
       </c>
       <c r="C13">
-        <v>0.2884681447904569</v>
+        <v>0.1097052797036895</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.435671756839881</v>
+        <v>0.695344600418224</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1312040376081072</v>
+        <v>0.2344771848777185</v>
       </c>
       <c r="H13">
-        <v>0.1294908669578732</v>
+        <v>0.4183725562111391</v>
       </c>
       <c r="I13">
-        <v>0.076586365659157</v>
+        <v>0.2984259862681498</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.95300836649551</v>
+        <v>0.6179055116291465</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5006108203825477</v>
+        <v>1.220975039289456</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.761938489778601</v>
+        <v>0.5603783603944521</v>
       </c>
       <c r="C14">
-        <v>0.2840552671885206</v>
+        <v>0.1083149258977727</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.387653113272549</v>
+        <v>0.6832899589519599</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1302501345326021</v>
+        <v>0.2350767478375104</v>
       </c>
       <c r="H14">
-        <v>0.1302724194582439</v>
+        <v>0.419303994950539</v>
       </c>
       <c r="I14">
-        <v>0.07792531937034397</v>
+        <v>0.2995019535165468</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.920118360825484</v>
+        <v>0.6075233585464446</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5001577342616912</v>
+        <v>1.224157307507951</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.743148764229232</v>
+        <v>0.5544661803445194</v>
       </c>
       <c r="C15">
-        <v>0.2813541298278324</v>
+        <v>0.1074628118397243</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.358350251670259</v>
+        <v>0.6759088090582708</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1296907198577273</v>
+        <v>0.2354496791349163</v>
       </c>
       <c r="H15">
-        <v>0.1307645487441178</v>
+        <v>0.4198793902307614</v>
       </c>
       <c r="I15">
-        <v>0.0787617396878364</v>
+        <v>0.3001660583009897</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.899982074214734</v>
+        <v>0.6011610519791191</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4999608963614719</v>
+        <v>1.226128623439607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.635594026842767</v>
+        <v>0.520551076407969</v>
       </c>
       <c r="C16">
-        <v>0.2659014239104351</v>
+        <v>0.1025723724002319</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.192014941127226</v>
+        <v>0.6336502290723445</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1268531030236844</v>
+        <v>0.2376736703893272</v>
       </c>
       <c r="H16">
-        <v>0.1337846424898714</v>
+        <v>0.4232512224542546</v>
       </c>
       <c r="I16">
-        <v>0.08379740206793329</v>
+        <v>0.3040489780910764</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.784725802315393</v>
+        <v>0.5646568239732517</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5000300685793775</v>
+        <v>1.237763382107687</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.569708791231079</v>
+        <v>0.4997148611580542</v>
       </c>
       <c r="C17">
-        <v>0.2564427980275212</v>
+        <v>0.09956579522084041</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.091288393978374</v>
+        <v>0.6077603318098141</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1254269646543946</v>
+        <v>0.2391153047608228</v>
       </c>
       <c r="H17">
-        <v>0.1358098671538173</v>
+        <v>0.4253861339142588</v>
       </c>
       <c r="I17">
-        <v>0.08709565614202219</v>
+        <v>0.3064998013017934</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.714127636868795</v>
+        <v>0.5422236900637927</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5010990157838364</v>
+        <v>1.245201879671299</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.531843926986738</v>
+        <v>0.4877195071149458</v>
       </c>
       <c r="C18">
-        <v>0.2510092644228337</v>
+        <v>0.0978341523478008</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.033797643071736</v>
+        <v>0.5928813261688362</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1247169919583158</v>
+        <v>0.2399728063451363</v>
       </c>
       <c r="H18">
-        <v>0.1370358550533908</v>
+        <v>0.4266384597699258</v>
       </c>
       <c r="I18">
-        <v>0.08906672578847719</v>
+        <v>0.3079346809102166</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.673555668315032</v>
+        <v>0.5293066869759855</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5020750498967743</v>
+        <v>1.249590665488839</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.519028352235324</v>
+        <v>0.4836562362477821</v>
       </c>
       <c r="C19">
-        <v>0.2491706485704839</v>
+        <v>0.09724744906297644</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.014405084569603</v>
+        <v>0.5878455992767186</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1244950622200989</v>
+        <v>0.2402679955290736</v>
       </c>
       <c r="H19">
-        <v>0.137461245127632</v>
+        <v>0.4270666612937504</v>
       </c>
       <c r="I19">
-        <v>0.08974654600728371</v>
+        <v>0.3084248356940815</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.659824081541615</v>
+        <v>0.5249308223734772</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5024660801604313</v>
+        <v>1.251095564490768</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.57671911781793</v>
+        <v>0.501934047213382</v>
       </c>
       <c r="C20">
-        <v>0.2574489586981201</v>
+        <v>0.09988609330538623</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.101964057439289</v>
+        <v>0.6105150849500518</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1255672460057866</v>
+        <v>0.2389589081123518</v>
       </c>
       <c r="H20">
-        <v>0.13558790176873</v>
+        <v>0.4251563450999498</v>
       </c>
       <c r="I20">
-        <v>0.0867368302909366</v>
+        <v>0.3062362946741306</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.721639270969717</v>
+        <v>0.5446131963666403</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5009474878058171</v>
+        <v>1.244398611788327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.770951003991883</v>
+        <v>0.5632127868976795</v>
       </c>
       <c r="C21">
-        <v>0.2853510392415899</v>
+        <v>0.1087234071785019</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.401734200966445</v>
+        <v>0.6868301412168307</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1305251022355804</v>
+        <v>0.2348994570996226</v>
       </c>
       <c r="H21">
-        <v>0.1300400511895958</v>
+        <v>0.4190293954269819</v>
       </c>
       <c r="I21">
-        <v>0.07752862812915673</v>
+        <v>0.2991848644869766</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.929776879366273</v>
+        <v>0.610573462316097</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5002739042480187</v>
+        <v>1.223217994418036</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.898269193538312</v>
+        <v>0.6031593510644768</v>
       </c>
       <c r="C22">
-        <v>0.3036681165819175</v>
+        <v>0.1144776048203084</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.602465779632922</v>
+        <v>0.7368245474456927</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1348642741083736</v>
+        <v>0.2325004236523682</v>
       </c>
       <c r="H22">
-        <v>0.1270080424250821</v>
+        <v>0.4152426414250456</v>
       </c>
       <c r="I22">
-        <v>0.07223114670746966</v>
+        <v>0.2948019746010981</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.066230284356521</v>
+        <v>0.6535515204639353</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.503401317701659</v>
+        <v>1.210363054279526</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.830277308659845</v>
+        <v>0.5818487717590983</v>
       </c>
       <c r="C23">
-        <v>0.2938834237156556</v>
+        <v>0.1114084804535622</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.494846624206986</v>
+        <v>0.7101303157136414</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1324418784779056</v>
+        <v>0.2337574932162525</v>
       </c>
       <c r="H23">
-        <v>0.1285694281019687</v>
+        <v>0.4172437745329773</v>
       </c>
       <c r="I23">
-        <v>0.07498944473818803</v>
+        <v>0.2971205145226961</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.993357705592274</v>
+        <v>0.6306255595343657</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5013878267567407</v>
+        <v>1.217133346063179</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.573549708435991</v>
+        <v>0.5009308040235112</v>
       </c>
       <c r="C24">
-        <v>0.2569940601109693</v>
+        <v>0.09974129625958028</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.097136296238503</v>
+        <v>0.6092696442384948</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1255034836445574</v>
+        <v>0.2390295257001966</v>
       </c>
       <c r="H24">
-        <v>0.1356880607968947</v>
+        <v>0.4252601549488588</v>
       </c>
       <c r="I24">
-        <v>0.08689882295221807</v>
+        <v>0.306355345450255</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.718243213071503</v>
+        <v>0.5435329624786789</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5010148714469551</v>
+        <v>1.244761419457191</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.297746378315821</v>
+        <v>0.4132333661295036</v>
       </c>
       <c r="C25">
-        <v>0.2174539690726505</v>
+        <v>0.08706727558663374</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.684749524840399</v>
+        <v>0.5009346304369728</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1221799097072775</v>
+        <v>0.2457975228181866</v>
       </c>
       <c r="H25">
-        <v>0.1456798641539976</v>
+        <v>0.434839015018369</v>
       </c>
       <c r="I25">
-        <v>0.1025440126537802</v>
+        <v>0.3172806915296249</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.422739600765169</v>
+        <v>0.4490550746224642</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5142518695006544</v>
+        <v>1.278779022084677</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3483199873666081</v>
+        <v>1.09509825258354</v>
       </c>
       <c r="C2">
-        <v>0.07766027381389051</v>
+        <v>0.1884542569827801</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4214918725342187</v>
+        <v>1.391411740334789</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2517007221420897</v>
+        <v>0.1227530574542968</v>
       </c>
       <c r="H2">
-        <v>0.4426920784174513</v>
+        <v>0.1547910532349306</v>
       </c>
       <c r="I2">
-        <v>0.3261503604462632</v>
+        <v>0.1161764540520984</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3790457237252554</v>
+        <v>1.205631239478464</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.307428150239318</v>
+        <v>0.5340518786398007</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3041225684244182</v>
+        <v>0.9577899393566724</v>
       </c>
       <c r="C3">
-        <v>0.07123906844635997</v>
+        <v>0.1688273267338047</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3678202120443927</v>
+        <v>1.197321293663293</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2562701936192191</v>
+        <v>0.1247746137541341</v>
       </c>
       <c r="H3">
-        <v>0.4485126668844259</v>
+        <v>0.1619542114694497</v>
       </c>
       <c r="I3">
-        <v>0.3326743421453919</v>
+        <v>0.1266000294568181</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3313300743348293</v>
+        <v>1.05852151184888</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.329078728740186</v>
+        <v>0.5529877672852805</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2768875659509717</v>
+        <v>0.873426928444303</v>
       </c>
       <c r="C4">
-        <v>0.0672741386793092</v>
+        <v>0.1567765225850337</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3349375038587254</v>
+        <v>1.079967573903488</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2593547557453135</v>
+        <v>0.1267451661541692</v>
       </c>
       <c r="H4">
-        <v>0.4523321796906146</v>
+        <v>0.1668077242887236</v>
       </c>
       <c r="I4">
-        <v>0.3369324167165537</v>
+        <v>0.1335437152598296</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3019030122952699</v>
+        <v>0.9681310823658578</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.343470494376788</v>
+        <v>0.5671065843471013</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2657652826387391</v>
+        <v>0.8390255408233998</v>
       </c>
       <c r="C5">
-        <v>0.06565288561210991</v>
+        <v>0.1518641070231723</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3215542924570798</v>
+        <v>1.032534059281772</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.260681616736008</v>
+        <v>0.1277208892757855</v>
       </c>
       <c r="H5">
-        <v>0.4539503894675541</v>
+        <v>0.1688955226209004</v>
       </c>
       <c r="I5">
-        <v>0.3387309529775084</v>
+        <v>0.1365042358232493</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2898794577183423</v>
+        <v>0.931270013428616</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.349610784280223</v>
+        <v>0.5734546041040502</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2639170206162476</v>
+        <v>0.8333115932108228</v>
       </c>
       <c r="C6">
-        <v>0.06538334757070174</v>
+        <v>0.1510482604004579</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3193329940751966</v>
+        <v>1.024679359964708</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.260906154002523</v>
+        <v>0.1278930369067908</v>
       </c>
       <c r="H6">
-        <v>0.4542228188944968</v>
+        <v>0.1692487126894306</v>
       </c>
       <c r="I6">
-        <v>0.339033420615225</v>
+        <v>0.1370035714893447</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.287881058365997</v>
+        <v>0.9251473977727755</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.350646997576206</v>
+        <v>0.5745436853862103</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.276737662317089</v>
+        <v>0.8729630828192683</v>
       </c>
       <c r="C7">
-        <v>0.06725229609048711</v>
+        <v>0.1567102806786522</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3347569470696925</v>
+        <v>1.079326380106437</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2593723676623974</v>
+        <v>0.1267576395140253</v>
       </c>
       <c r="H7">
-        <v>0.4523537535601143</v>
+        <v>0.166835441693145</v>
       </c>
       <c r="I7">
-        <v>0.3369564161091212</v>
+        <v>0.1335831192321235</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3017409861228941</v>
+        <v>0.9676340800351966</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.3435521897065</v>
+        <v>0.5671898301645939</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.333101408955315</v>
+        <v>1.04776018666783</v>
       </c>
       <c r="C8">
-        <v>0.07545091995275754</v>
+        <v>0.1816857961154881</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4029701469637672</v>
+        <v>1.324069187425877</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2532182415693995</v>
+        <v>0.1232921107252949</v>
       </c>
       <c r="H8">
-        <v>0.4446480077171771</v>
+        <v>0.1571636055312098</v>
       </c>
       <c r="I8">
-        <v>0.3283473927233533</v>
+        <v>0.1196541215077733</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3626206814189459</v>
+        <v>1.154914872654615</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.314664957135392</v>
+        <v>0.5400438309031017</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4428285929688229</v>
+        <v>1.390551524504787</v>
       </c>
       <c r="C9">
-        <v>0.09134832867559339</v>
+        <v>0.2307491188088733</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5373724907827011</v>
+        <v>1.821815498921595</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.2433741370383586</v>
+        <v>0.1227949449255732</v>
       </c>
       <c r="H9">
-        <v>0.431487970616601</v>
+        <v>0.1420266920156621</v>
       </c>
       <c r="I9">
-        <v>0.3134719984428695</v>
+        <v>0.09692696505103093</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4809503835636235</v>
+        <v>1.522169546190582</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.266758966179779</v>
+        <v>0.5081249996851938</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5229271360309156</v>
+        <v>1.643116472742975</v>
       </c>
       <c r="C10">
-        <v>0.1029151245213171</v>
+        <v>0.266981709675477</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6366061295298806</v>
+        <v>2.20357152277559</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2375130128124638</v>
+        <v>0.1270311626600034</v>
       </c>
       <c r="H10">
-        <v>0.4230109194674512</v>
+        <v>0.1335619953470299</v>
       </c>
       <c r="I10">
-        <v>0.3037727442139211</v>
+        <v>0.08343127739489908</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5672146765993773</v>
+        <v>1.792786567282263</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.236929569081298</v>
+        <v>0.4999581845959824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5592479070427316</v>
+        <v>1.758344813013196</v>
       </c>
       <c r="C11">
-        <v>0.1081520041497157</v>
+        <v>0.2835386176795964</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6818782999108919</v>
+        <v>2.382043070896842</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2351477268900055</v>
+        <v>0.1301416927907582</v>
       </c>
       <c r="H11">
-        <v>0.4194137397873661</v>
+        <v>0.1303657391952768</v>
       </c>
       <c r="I11">
-        <v>0.2996286515988071</v>
+        <v>0.0780843092015715</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6063068645489977</v>
+        <v>1.916267117071158</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.224532973981908</v>
+        <v>0.5001153401902201</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5729842494943966</v>
+        <v>1.802042493452745</v>
       </c>
       <c r="C12">
-        <v>0.1101314162769</v>
+        <v>0.2898220556503475</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6990420370345873</v>
+        <v>2.450440749898235</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2342956078055352</v>
+        <v>0.1315065945119827</v>
       </c>
       <c r="H12">
-        <v>0.4180888861583938</v>
+        <v>0.1292566210801951</v>
       </c>
       <c r="I12">
-        <v>0.298098071865498</v>
+        <v>0.07618235898422121</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6210878540784392</v>
+        <v>1.963097599814631</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.220008065970717</v>
+        <v>0.5007823428056923</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5700266753715084</v>
+        <v>1.792628351020426</v>
       </c>
       <c r="C13">
-        <v>0.1097052797036895</v>
+        <v>0.2884681447904427</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.695344600418224</v>
+        <v>2.435671756839909</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.2344771848777185</v>
+        <v>0.131204037608093</v>
       </c>
       <c r="H13">
-        <v>0.4183725562111391</v>
+        <v>0.1294908669578732</v>
       </c>
       <c r="I13">
-        <v>0.2984259862681498</v>
+        <v>0.07658636565914456</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6179055116291465</v>
+        <v>1.953008366495538</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.220975039289456</v>
+        <v>0.5006108203825477</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5603783603944521</v>
+        <v>1.761938489778686</v>
       </c>
       <c r="C14">
-        <v>0.1083149258977727</v>
+        <v>0.284055267188748</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6832899589519599</v>
+        <v>2.387653113272563</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2350767478375104</v>
+        <v>0.130250134532659</v>
       </c>
       <c r="H14">
-        <v>0.419303994950539</v>
+        <v>0.1302724194582439</v>
       </c>
       <c r="I14">
-        <v>0.2995019535165468</v>
+        <v>0.07792531937035285</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6075233585464446</v>
+        <v>1.920118360825484</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.224157307507951</v>
+        <v>0.5001577342616912</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5544661803445194</v>
+        <v>1.743148764229176</v>
       </c>
       <c r="C15">
-        <v>0.1074628118397243</v>
+        <v>0.2813541298275766</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6759088090582708</v>
+        <v>2.358350251670217</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2354496791349163</v>
+        <v>0.1296907198577415</v>
       </c>
       <c r="H15">
-        <v>0.4198793902307614</v>
+        <v>0.1307645487441178</v>
       </c>
       <c r="I15">
-        <v>0.3001660583009897</v>
+        <v>0.07876173968782041</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6011610519791191</v>
+        <v>1.899982074214677</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.226128623439607</v>
+        <v>0.4999608963614151</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.520551076407969</v>
+        <v>1.635594026842597</v>
       </c>
       <c r="C16">
-        <v>0.1025723724002319</v>
+        <v>0.2659014239105915</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6336502290723445</v>
+        <v>2.192014941127212</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2376736703893272</v>
+        <v>0.1268531030237412</v>
       </c>
       <c r="H16">
-        <v>0.4232512224542546</v>
+        <v>0.1337846424898714</v>
       </c>
       <c r="I16">
-        <v>0.3040489780910764</v>
+        <v>0.08379740206792974</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5646568239732517</v>
+        <v>1.784725802315336</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.237763382107687</v>
+        <v>0.5000300685793633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4997148611580542</v>
+        <v>1.569708791231193</v>
       </c>
       <c r="C17">
-        <v>0.09956579522084041</v>
+        <v>0.2564427980277628</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6077603318098141</v>
+        <v>2.091288393978346</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2391153047608228</v>
+        <v>0.1254269646543875</v>
       </c>
       <c r="H17">
-        <v>0.4253861339142588</v>
+        <v>0.1358098671538173</v>
       </c>
       <c r="I17">
-        <v>0.3064998013017934</v>
+        <v>0.08709565614202219</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5422236900637927</v>
+        <v>1.714127636868795</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.245201879671299</v>
+        <v>0.5010990157838364</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4877195071149458</v>
+        <v>1.53184392698671</v>
       </c>
       <c r="C18">
-        <v>0.0978341523478008</v>
+        <v>0.251009264422791</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5928813261688362</v>
+        <v>2.033797643071722</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2399728063451363</v>
+        <v>0.1247169919583087</v>
       </c>
       <c r="H18">
-        <v>0.4266384597699258</v>
+        <v>0.13703585505327</v>
       </c>
       <c r="I18">
-        <v>0.3079346809102166</v>
+        <v>0.08906672578847186</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5293066869759855</v>
+        <v>1.673555668314975</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.249590665488839</v>
+        <v>0.5020750498967175</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4836562362477821</v>
+        <v>1.519028352235495</v>
       </c>
       <c r="C19">
-        <v>0.09724744906297644</v>
+        <v>0.2491706485706544</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5878455992767186</v>
+        <v>2.014405084569631</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2402679955290736</v>
+        <v>0.1244950622200989</v>
       </c>
       <c r="H19">
-        <v>0.4270666612937504</v>
+        <v>0.137461245127632</v>
       </c>
       <c r="I19">
-        <v>0.3084248356940815</v>
+        <v>0.08974654600728194</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5249308223734772</v>
+        <v>1.659824081541672</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.251095564490768</v>
+        <v>0.5024660801604171</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.501934047213382</v>
+        <v>1.576719117818016</v>
       </c>
       <c r="C20">
-        <v>0.09988609330538623</v>
+        <v>0.2574489586983049</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6105150849500518</v>
+        <v>2.101964057439304</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2389589081123518</v>
+        <v>0.1255672460057795</v>
       </c>
       <c r="H20">
-        <v>0.4251563450999498</v>
+        <v>0.1355879017688508</v>
       </c>
       <c r="I20">
-        <v>0.3062362946741306</v>
+        <v>0.0867368302909366</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5446131963666403</v>
+        <v>1.721639270969689</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.244398611788327</v>
+        <v>0.5009474878058171</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5632127868976795</v>
+        <v>1.770951003991883</v>
       </c>
       <c r="C21">
-        <v>0.1087234071785019</v>
+        <v>0.2853510392413341</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6868301412168307</v>
+        <v>2.401734200966388</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2348994570996226</v>
+        <v>0.1305251022355733</v>
       </c>
       <c r="H21">
-        <v>0.4190293954269819</v>
+        <v>0.130040051189475</v>
       </c>
       <c r="I21">
-        <v>0.2991848644869766</v>
+        <v>0.07752862812915318</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.610573462316097</v>
+        <v>1.929776879366244</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.223217994418036</v>
+        <v>0.5002739042480187</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6031593510644768</v>
+        <v>1.898269193538226</v>
       </c>
       <c r="C22">
-        <v>0.1144776048203084</v>
+        <v>0.3036681165816901</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7368245474456927</v>
+        <v>2.602465779632965</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2325004236523682</v>
+        <v>0.1348642741083736</v>
       </c>
       <c r="H22">
-        <v>0.4152426414250456</v>
+        <v>0.1270080424250821</v>
       </c>
       <c r="I22">
-        <v>0.2948019746010981</v>
+        <v>0.07223114670746966</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6535515204639353</v>
+        <v>2.066230284356521</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.210363054279526</v>
+        <v>0.5034013177016448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5818487717590983</v>
+        <v>1.830277308659902</v>
       </c>
       <c r="C23">
-        <v>0.1114084804535622</v>
+        <v>0.2938834237156271</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7101303157136414</v>
+        <v>2.494846624206943</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2337574932162525</v>
+        <v>0.1324418784778985</v>
       </c>
       <c r="H23">
-        <v>0.4172437745329773</v>
+        <v>0.1285694281019687</v>
       </c>
       <c r="I23">
-        <v>0.2971205145226961</v>
+        <v>0.07498944473818625</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6306255595343657</v>
+        <v>1.993357705592075</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.217133346063179</v>
+        <v>0.5013878267566696</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5009308040235112</v>
+        <v>1.573549708435877</v>
       </c>
       <c r="C24">
-        <v>0.09974129625958028</v>
+        <v>0.2569940601107135</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6092696442384948</v>
+        <v>2.097136296238489</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2390295257001966</v>
+        <v>0.1255034836445503</v>
       </c>
       <c r="H24">
-        <v>0.4252601549488588</v>
+        <v>0.1356880607968947</v>
       </c>
       <c r="I24">
-        <v>0.306355345450255</v>
+        <v>0.0868988229522305</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5435329624786789</v>
+        <v>1.71824321307156</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.244761419457191</v>
+        <v>0.5010148714468841</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4132333661295036</v>
+        <v>1.297746378315793</v>
       </c>
       <c r="C25">
-        <v>0.08706727558663374</v>
+        <v>0.2174539690729205</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5009346304369728</v>
+        <v>1.684749524840413</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2457975228181866</v>
+        <v>0.1221799097072775</v>
       </c>
       <c r="H25">
-        <v>0.434839015018369</v>
+        <v>0.1456798641539976</v>
       </c>
       <c r="I25">
-        <v>0.3172806915296249</v>
+        <v>0.1025440126537962</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4490550746224642</v>
+        <v>1.422739600765226</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.278779022084677</v>
+        <v>0.5142518695007112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.09509825258354</v>
+        <v>0.838294681075638</v>
       </c>
       <c r="C2">
-        <v>0.1884542569827801</v>
+        <v>0.1725365155869554</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.391411740334789</v>
+        <v>1.307482146728361</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1227530574542968</v>
+        <v>0.2123056594301644</v>
       </c>
       <c r="H2">
-        <v>0.1547910532349306</v>
+        <v>0.006301600544133978</v>
       </c>
       <c r="I2">
-        <v>0.1161764540520984</v>
+        <v>0.001093935834435733</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2232279535994834</v>
       </c>
       <c r="K2">
-        <v>1.205631239478464</v>
+        <v>0.1973856798940403</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9305446277620604</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5340518786398007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7328459727386445</v>
+      </c>
+      <c r="Q2">
+        <v>0.8660827555647899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9577899393566724</v>
+        <v>0.7308861986074078</v>
       </c>
       <c r="C3">
-        <v>0.1688273267338047</v>
+        <v>0.1560072125062959</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.197321293663293</v>
+        <v>1.14108088389186</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1247746137541341</v>
+        <v>0.2070046730667698</v>
       </c>
       <c r="H3">
-        <v>0.1619542114694497</v>
+        <v>0.004344886208795251</v>
       </c>
       <c r="I3">
-        <v>0.1266000294568181</v>
+        <v>0.0006924666503058674</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2242765371777153</v>
       </c>
       <c r="K3">
-        <v>1.05852151184888</v>
+        <v>0.2012302449253216</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8149400976389529</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5529877672852805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7458455116849265</v>
+      </c>
+      <c r="Q3">
+        <v>0.8568111985339897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.873426928444303</v>
+        <v>0.6645256067840251</v>
       </c>
       <c r="C4">
-        <v>0.1567765225850337</v>
+        <v>0.1459720910032587</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.079967573903488</v>
+        <v>1.038964260009763</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1267451661541692</v>
+        <v>0.2039733449516348</v>
       </c>
       <c r="H4">
-        <v>0.1668077242887236</v>
+        <v>0.003288262819531873</v>
       </c>
       <c r="I4">
-        <v>0.1335437152598296</v>
+        <v>0.0005450797236008498</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.225084613368125</v>
       </c>
       <c r="K4">
-        <v>0.9681310823658578</v>
+        <v>0.2037507631425477</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.743794283214342</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5671065843471013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7543818982074377</v>
+      </c>
+      <c r="Q4">
+        <v>0.8519305267816009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8390255408233998</v>
+        <v>0.6367487327676713</v>
       </c>
       <c r="C5">
-        <v>0.1518641070231723</v>
+        <v>0.1422287650666476</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.032534059281772</v>
+        <v>0.997341527814072</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1277208892757855</v>
+        <v>0.2025484288923494</v>
       </c>
       <c r="H5">
-        <v>0.1688955226209004</v>
+        <v>0.002890682788334376</v>
       </c>
       <c r="I5">
-        <v>0.1365042358232493</v>
+        <v>0.0005715922285896013</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2253258762073358</v>
       </c>
       <c r="K5">
-        <v>0.931270013428616</v>
+        <v>0.2046332559681137</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7147587552891395</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5734546041040502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7581827843542754</v>
+      </c>
+      <c r="Q5">
+        <v>0.8493535497683382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8333115932108228</v>
+        <v>0.6313579164743146</v>
       </c>
       <c r="C6">
-        <v>0.1510482604004579</v>
+        <v>0.1420012931100274</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.024679359964708</v>
+        <v>0.9904165489691508</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1278930369067908</v>
+        <v>0.2020184070955153</v>
       </c>
       <c r="H6">
-        <v>0.1692487126894306</v>
+        <v>0.002825652754799401</v>
       </c>
       <c r="I6">
-        <v>0.1370035714893447</v>
+        <v>0.0006617466503495706</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2252118802784935</v>
       </c>
       <c r="K6">
-        <v>0.9251473977727755</v>
+        <v>0.2045581726452035</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7099363305075315</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5745436853862103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7590518494148277</v>
+      </c>
+      <c r="Q6">
+        <v>0.8479805727977805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8729630828192683</v>
+        <v>0.6620350253000709</v>
       </c>
       <c r="C7">
-        <v>0.1567102806786522</v>
+        <v>0.1469961232668311</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.079326380106437</v>
+        <v>1.038366461479271</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1267576395140253</v>
+        <v>0.2031442249049462</v>
       </c>
       <c r="H7">
-        <v>0.166835441693145</v>
+        <v>0.003279902464945361</v>
       </c>
       <c r="I7">
-        <v>0.1335831192321235</v>
+        <v>0.000761361426936169</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.224661350680293</v>
       </c>
       <c r="K7">
-        <v>0.9676340800351966</v>
+        <v>0.20315198915916</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7434073335960676</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5671898301645939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7550719632241538</v>
+      </c>
+      <c r="Q7">
+        <v>0.8492847576460463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.04776018666783</v>
+        <v>0.7985174889285247</v>
       </c>
       <c r="C8">
-        <v>0.1816857961154881</v>
+        <v>0.1682491194083156</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.324069187425877</v>
+        <v>1.250039192713331</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.1232921107252949</v>
+        <v>0.2093606466032298</v>
       </c>
       <c r="H8">
-        <v>0.1571636055312098</v>
+        <v>0.005590645123296656</v>
       </c>
       <c r="I8">
-        <v>0.1196541215077733</v>
+        <v>0.001194745502993477</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2229948647009223</v>
       </c>
       <c r="K8">
-        <v>1.154914872654615</v>
+        <v>0.1978767885952166</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8907215861329405</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5400438309031017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7381093175214986</v>
+      </c>
+      <c r="Q8">
+        <v>0.8592723925246446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.390551524504787</v>
+        <v>1.066742753566587</v>
       </c>
       <c r="C9">
-        <v>0.2307491188088733</v>
+        <v>0.2089923783662755</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.821815498921595</v>
+        <v>1.666217049914437</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1227949449255732</v>
+        <v>0.2249201762715387</v>
       </c>
       <c r="H9">
-        <v>0.1420266920156621</v>
+        <v>0.01139902262301828</v>
       </c>
       <c r="I9">
-        <v>0.09692696505103093</v>
+        <v>0.002564638828215671</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2218486108512749</v>
       </c>
       <c r="K9">
-        <v>1.522169546190582</v>
+        <v>0.1899424420690004</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.178458719602986</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5081249996851938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7081862200703668</v>
+      </c>
+      <c r="Q9">
+        <v>0.8904005270935329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.643116472742975</v>
+        <v>1.256715727897074</v>
       </c>
       <c r="C10">
-        <v>0.266981709675477</v>
+        <v>0.2381050445265487</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.20357152277559</v>
+        <v>1.87362089909945</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1270311626600034</v>
+        <v>0.2329955195615128</v>
       </c>
       <c r="H10">
-        <v>0.1335619953470299</v>
+        <v>0.01612870131118394</v>
       </c>
       <c r="I10">
-        <v>0.08343127739489908</v>
+        <v>0.00423822261740181</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2196049181929283</v>
       </c>
       <c r="K10">
-        <v>1.792786567282263</v>
+        <v>0.1829325277227145</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.382728573579584</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4999581845959824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6933608687232962</v>
+      </c>
+      <c r="Q10">
+        <v>0.9031843187989352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.758344813013196</v>
+        <v>1.303591314529513</v>
       </c>
       <c r="C11">
-        <v>0.2835386176795964</v>
+        <v>0.2349762460397926</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.382043070896842</v>
+        <v>1.198795640995101</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1301416927907582</v>
+        <v>0.1996292839254039</v>
       </c>
       <c r="H11">
-        <v>0.1303657391952768</v>
+        <v>0.03200728674096354</v>
       </c>
       <c r="I11">
-        <v>0.0780843092015715</v>
+        <v>0.005055576713264287</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2003821924409834</v>
       </c>
       <c r="K11">
-        <v>1.916267117071158</v>
+        <v>0.1644437246203001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.417356059055152</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5001153401902201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7245870501875871</v>
+      </c>
+      <c r="Q11">
+        <v>0.792280597415342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.802042493452745</v>
+        <v>1.306298234800067</v>
       </c>
       <c r="C12">
-        <v>0.2898220556503475</v>
+        <v>0.2249453739892431</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.450440749898235</v>
+        <v>0.7158362647338237</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1315065945119827</v>
+        <v>0.1728646396482958</v>
       </c>
       <c r="H12">
-        <v>0.1292566210801951</v>
+        <v>0.06857115205734488</v>
       </c>
       <c r="I12">
-        <v>0.07618235898422121</v>
+        <v>0.005038172427902943</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1859021842609252</v>
       </c>
       <c r="K12">
-        <v>1.963097599814631</v>
+        <v>0.1521404834616735</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.403339220052118</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5007823428056923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7565887957126662</v>
+      </c>
+      <c r="Q12">
+        <v>0.7052257411455543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.792628351020426</v>
+        <v>1.271848771663429</v>
       </c>
       <c r="C13">
-        <v>0.2884681447904427</v>
+        <v>0.2108401123084036</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.435671756839909</v>
+        <v>0.352115760460272</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.131204037608093</v>
+        <v>0.1483207221504728</v>
       </c>
       <c r="H13">
-        <v>0.1294908669578732</v>
+        <v>0.122413491883492</v>
       </c>
       <c r="I13">
-        <v>0.07658636565914456</v>
+        <v>0.004705253223885819</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1735061203628803</v>
       </c>
       <c r="K13">
-        <v>1.953008366495538</v>
+        <v>0.1428397377272503</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.35127587054933</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5006108203825477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7912077929223997</v>
+      </c>
+      <c r="Q13">
+        <v>0.6271816941341228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.761938489778686</v>
+        <v>1.230434213568657</v>
       </c>
       <c r="C14">
-        <v>0.284055267188748</v>
+        <v>0.1995951014815347</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.387653113272563</v>
+        <v>0.169497192519998</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.130250134532659</v>
+        <v>0.1323362526332303</v>
       </c>
       <c r="H14">
-        <v>0.1302724194582439</v>
+        <v>0.1705824685083996</v>
       </c>
       <c r="I14">
-        <v>0.07792531937035285</v>
+        <v>0.004419817155750572</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1658074582954399</v>
       </c>
       <c r="K14">
-        <v>1.920118360825484</v>
+        <v>0.137708308364564</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.297938984947848</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5001577342616912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8170083946322251</v>
+      </c>
+      <c r="Q14">
+        <v>0.5771087527167396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.743148764229176</v>
+        <v>1.211657018295341</v>
       </c>
       <c r="C15">
-        <v>0.2813541298275766</v>
+        <v>0.1963281776341006</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.358350251670217</v>
+        <v>0.1340369259181671</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1296907198577415</v>
+        <v>0.1284932096229703</v>
       </c>
       <c r="H15">
-        <v>0.1307645487441178</v>
+        <v>0.1827125593055854</v>
       </c>
       <c r="I15">
-        <v>0.07876173968782041</v>
+        <v>0.004385895958304076</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1641907769419717</v>
       </c>
       <c r="K15">
-        <v>1.899982074214677</v>
+        <v>0.1368478953108898</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.276945569675178</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4999608963614151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8237272325561946</v>
+      </c>
+      <c r="Q15">
+        <v>0.5655454800645572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.635594026842597</v>
+        <v>1.136580870904027</v>
       </c>
       <c r="C16">
-        <v>0.2659014239105915</v>
+        <v>0.1877227383192519</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.192014941127212</v>
+        <v>0.1317073457294882</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.1268531030237412</v>
+        <v>0.129732270503311</v>
       </c>
       <c r="H16">
-        <v>0.1337846424898714</v>
+        <v>0.1685990269189546</v>
       </c>
       <c r="I16">
-        <v>0.08379740206792974</v>
+        <v>0.003869390908421089</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1673497241411681</v>
       </c>
       <c r="K16">
-        <v>1.784725802315336</v>
+        <v>0.1412187509805838</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.201122419078814</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5000300685793633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8207541422267752</v>
+      </c>
+      <c r="Q16">
+        <v>0.5746419568640988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.569708791231193</v>
+        <v>1.100847542715286</v>
       </c>
       <c r="C17">
-        <v>0.2564427980277628</v>
+        <v>0.1870423450758238</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.091288393978346</v>
+        <v>0.2136149046285496</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1254269646543875</v>
+        <v>0.138985585236135</v>
       </c>
       <c r="H17">
-        <v>0.1358098671538173</v>
+        <v>0.1303239285657298</v>
       </c>
       <c r="I17">
-        <v>0.08709565614202219</v>
+        <v>0.003645582683146742</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1738312251024325</v>
       </c>
       <c r="K17">
-        <v>1.714127636868795</v>
+        <v>0.1472516156981367</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.17113511729633</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5010990157838364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8050681863890574</v>
+      </c>
+      <c r="Q17">
+        <v>0.6077538152885182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.53184392698671</v>
+        <v>1.096649461128521</v>
       </c>
       <c r="C18">
-        <v>0.251009264422791</v>
+        <v>0.1925491914149404</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.033797643071722</v>
+        <v>0.4399519209068004</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1247169919583087</v>
+        <v>0.157621334995433</v>
       </c>
       <c r="H18">
-        <v>0.13703585505327</v>
+        <v>0.07802467062730045</v>
       </c>
       <c r="I18">
-        <v>0.08906672578847186</v>
+        <v>0.003382150906434234</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1844995043344539</v>
       </c>
       <c r="K18">
-        <v>1.673555668314975</v>
+        <v>0.1561774323468015</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.177239667002397</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5020750498967175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7771849736988301</v>
+      </c>
+      <c r="Q18">
+        <v>0.6695796113720576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.519028352235495</v>
+        <v>1.114222063457561</v>
       </c>
       <c r="C19">
-        <v>0.2491706485706544</v>
+        <v>0.2051011687748741</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.014405084569631</v>
+        <v>0.8626114010950516</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1244950622200989</v>
+        <v>0.1829496069439642</v>
       </c>
       <c r="H19">
-        <v>0.137461245127632</v>
+        <v>0.03467081519949744</v>
       </c>
       <c r="I19">
-        <v>0.08974654600728194</v>
+        <v>0.003631989903975175</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1977512511361894</v>
       </c>
       <c r="K19">
-        <v>1.659824081541672</v>
+        <v>0.1667687332682206</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.212445074399966</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5024660801604171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7457301407161339</v>
+      </c>
+      <c r="Q19">
+        <v>0.7510554609354898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.576719117818016</v>
+        <v>1.200027660464201</v>
       </c>
       <c r="C20">
-        <v>0.2574489586983049</v>
+        <v>0.2337933233008158</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.101964057439304</v>
+        <v>1.814821051573375</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1255672460057795</v>
+        <v>0.2281159821472372</v>
       </c>
       <c r="H20">
-        <v>0.1355879017688508</v>
+        <v>0.01476757367652315</v>
       </c>
       <c r="I20">
-        <v>0.0867368302909366</v>
+        <v>0.004456575027006693</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2187536745479974</v>
       </c>
       <c r="K20">
-        <v>1.721639270969689</v>
+        <v>0.1828140068749882</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.328862925167044</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5009474878058171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6995889587944362</v>
+      </c>
+      <c r="Q20">
+        <v>0.8909619384736089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.770951003991883</v>
+        <v>1.352898338001694</v>
       </c>
       <c r="C21">
-        <v>0.2853510392413341</v>
+        <v>0.25903426452102</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.401734200966388</v>
+        <v>2.129028526913018</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1305251022355733</v>
+        <v>0.2420771505367725</v>
       </c>
       <c r="H21">
-        <v>0.130040051189475</v>
+        <v>0.01951141896121555</v>
       </c>
       <c r="I21">
-        <v>0.07752862812915318</v>
+        <v>0.005890625377998226</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2209141662753922</v>
       </c>
       <c r="K21">
-        <v>1.929776879366244</v>
+        <v>0.180910742227038</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.4958646464342</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5002739042480187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6830413909451494</v>
+      </c>
+      <c r="Q21">
+        <v>0.9253688570509269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.898269193538226</v>
+        <v>1.453241650901418</v>
       </c>
       <c r="C22">
-        <v>0.3036681165816901</v>
+        <v>0.273165941303148</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.602465779632965</v>
+        <v>2.284202248760593</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1348642741083736</v>
+        <v>0.2503564558452425</v>
       </c>
       <c r="H22">
-        <v>0.1270080424250821</v>
+        <v>0.02259385746990961</v>
       </c>
       <c r="I22">
-        <v>0.07223114670746966</v>
+        <v>0.006658469563736169</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2219817928618824</v>
       </c>
       <c r="K22">
-        <v>2.066230284356521</v>
+        <v>0.1797109914026898</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.601621371164413</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5034013177016448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6737311348894011</v>
+      </c>
+      <c r="Q22">
+        <v>0.9453338737656622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.830277308659902</v>
+        <v>1.402293708984701</v>
       </c>
       <c r="C23">
-        <v>0.2938834237156271</v>
+        <v>0.2642773368575746</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.494846624206943</v>
+        <v>2.201373905413504</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1324418784778985</v>
+        <v>0.2468471283171922</v>
       </c>
       <c r="H23">
-        <v>0.1285694281019687</v>
+        <v>0.02093314812584635</v>
       </c>
       <c r="I23">
-        <v>0.07498944473818625</v>
+        <v>0.005965233695385486</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2218791132727418</v>
       </c>
       <c r="K23">
-        <v>1.993357705592075</v>
+        <v>0.1810208727444937</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.545173235864013</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5013878267566696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6777065558965703</v>
+      </c>
+      <c r="Q23">
+        <v>0.9375852846777661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.573549708435877</v>
+        <v>1.20467870546355</v>
       </c>
       <c r="C24">
-        <v>0.2569940601107135</v>
+        <v>0.2330620438404054</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.097136296238489</v>
+        <v>1.888743419199784</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1255034836445503</v>
+        <v>0.2327658921854052</v>
       </c>
       <c r="H24">
-        <v>0.1356880607968947</v>
+        <v>0.01509661250475658</v>
       </c>
       <c r="I24">
-        <v>0.0868988229522305</v>
+        <v>0.004031654021098952</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2211441737270761</v>
       </c>
       <c r="K24">
-        <v>1.71824321307156</v>
+        <v>0.1853129907505089</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.331413270375265</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5010148714468841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.695511196393376</v>
+      </c>
+      <c r="Q24">
+        <v>0.905829080418826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.297746378315793</v>
+        <v>0.9906211265745526</v>
       </c>
       <c r="C25">
-        <v>0.2174539690729205</v>
+        <v>0.1998415490019454</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.684749524840413</v>
+        <v>1.553363478713152</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1221799097072775</v>
+        <v>0.2190298466468761</v>
       </c>
       <c r="H25">
-        <v>0.1456798641539976</v>
+        <v>0.009666371496494075</v>
       </c>
       <c r="I25">
-        <v>0.1025440126537962</v>
+        <v>0.002474073030140467</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2212468675721411</v>
       </c>
       <c r="K25">
-        <v>1.422739600765226</v>
+        <v>0.1908608933879368</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.100719556044766</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5142518695007112</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7170844655700321</v>
+      </c>
+      <c r="Q25">
+        <v>0.8765099632345823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.838294681075638</v>
+        <v>0.8203697265299184</v>
       </c>
       <c r="C2">
-        <v>0.1725365155869554</v>
+        <v>0.1758887824813513</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.307482146728361</v>
+        <v>1.307742090825926</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2123056594301644</v>
+        <v>0.1866190627742199</v>
       </c>
       <c r="H2">
-        <v>0.006301600544133978</v>
+        <v>0.006327218919434885</v>
       </c>
       <c r="I2">
-        <v>0.001093935834435733</v>
+        <v>0.001355352893790851</v>
       </c>
       <c r="J2">
-        <v>0.2232279535994834</v>
+        <v>0.2536297891443837</v>
       </c>
       <c r="K2">
-        <v>0.1973856798940403</v>
+        <v>0.1872895371863983</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1149946637194947</v>
       </c>
       <c r="M2">
-        <v>0.9305446277620604</v>
+        <v>0.03762776428455883</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9301717067282596</v>
       </c>
       <c r="P2">
-        <v>0.7328459727386445</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8660827555647899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7336489464725773</v>
+      </c>
+      <c r="S2">
+        <v>0.8374315920448225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7308861986074078</v>
+        <v>0.7191112013920815</v>
       </c>
       <c r="C3">
-        <v>0.1560072125062959</v>
+        <v>0.1559171153207757</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.14108088389186</v>
+        <v>1.141747152123287</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2070046730667698</v>
+        <v>0.1830571315798295</v>
       </c>
       <c r="H3">
-        <v>0.004344886208795251</v>
+        <v>0.004402850649323886</v>
       </c>
       <c r="I3">
-        <v>0.0006924666503058674</v>
+        <v>0.0009326525847233036</v>
       </c>
       <c r="J3">
-        <v>0.2242765371777153</v>
+        <v>0.2537965742563273</v>
       </c>
       <c r="K3">
-        <v>0.2012302449253216</v>
+        <v>0.1916901954908194</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1196905519786569</v>
       </c>
       <c r="M3">
-        <v>0.8149400976389529</v>
+        <v>0.03768784474018805</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.814883944074694</v>
       </c>
       <c r="P3">
-        <v>0.7458455116849265</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8568111985339897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7428321827265592</v>
+      </c>
+      <c r="S3">
+        <v>0.8324299967774493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6645256067840251</v>
+        <v>0.6563859565554822</v>
       </c>
       <c r="C4">
-        <v>0.1459720910032587</v>
+        <v>0.1438519430936935</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.038964260009763</v>
+        <v>1.039860466117631</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2039733449516348</v>
+        <v>0.1810849615956087</v>
       </c>
       <c r="H4">
-        <v>0.003288262819531873</v>
+        <v>0.003358903597958207</v>
       </c>
       <c r="I4">
-        <v>0.0005450797236008498</v>
+        <v>0.0007597883980960951</v>
       </c>
       <c r="J4">
-        <v>0.225084613368125</v>
+        <v>0.2539554249351355</v>
       </c>
       <c r="K4">
-        <v>0.2037507631425477</v>
+        <v>0.1945054323154221</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.122759333669503</v>
       </c>
       <c r="M4">
-        <v>0.743794283214342</v>
+        <v>0.03812812803486754</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7439154520882454</v>
       </c>
       <c r="P4">
-        <v>0.7543818982074377</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8519305267816009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7490761177034528</v>
+      </c>
+      <c r="S4">
+        <v>0.8299624105280969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6367487327676713</v>
+        <v>0.6300602758406626</v>
       </c>
       <c r="C5">
-        <v>0.1422287650666476</v>
+        <v>0.1393135502110425</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.997341527814072</v>
+        <v>0.9983274119601049</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2025484288923494</v>
+        <v>0.1800969067338869</v>
       </c>
       <c r="H5">
-        <v>0.002890682788334376</v>
+        <v>0.002964823968987451</v>
       </c>
       <c r="I5">
-        <v>0.0005715922285896013</v>
+        <v>0.0007854862641032412</v>
       </c>
       <c r="J5">
-        <v>0.2253258762073358</v>
+        <v>0.2539007571233824</v>
       </c>
       <c r="K5">
-        <v>0.2046332559681137</v>
+        <v>0.1955030333140435</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1239489512796794</v>
       </c>
       <c r="M5">
-        <v>0.7147587552891395</v>
+        <v>0.03838072724500563</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7149490590857397</v>
       </c>
       <c r="P5">
-        <v>0.7581827843542754</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8493535497683382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7519655197018587</v>
+      </c>
+      <c r="S5">
+        <v>0.8283291907239345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6313579164743146</v>
+        <v>0.6249140329315992</v>
       </c>
       <c r="C6">
-        <v>0.1420012931100274</v>
+        <v>0.1389696131331704</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9904165489691508</v>
+        <v>0.9914174057390142</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2020184070955153</v>
+        <v>0.1796488952701978</v>
       </c>
       <c r="H6">
-        <v>0.002825652754799401</v>
+        <v>0.002900293931014097</v>
       </c>
       <c r="I6">
-        <v>0.0006617466503495706</v>
+        <v>0.0008921262615491088</v>
       </c>
       <c r="J6">
-        <v>0.2252118802784935</v>
+        <v>0.253729915445021</v>
       </c>
       <c r="K6">
-        <v>0.2045581726452035</v>
+        <v>0.1954545115633444</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1240186702955874</v>
       </c>
       <c r="M6">
-        <v>0.7099363305075315</v>
+        <v>0.03839425787997852</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7101385660863997</v>
       </c>
       <c r="P6">
-        <v>0.7590518494148277</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8479805727977805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7526961805469092</v>
+      </c>
+      <c r="S6">
+        <v>0.8271243807067776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6620350253000709</v>
+        <v>0.6535583085199619</v>
       </c>
       <c r="C7">
-        <v>0.1469961232668311</v>
+        <v>0.1446295155535466</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.038366461479271</v>
+        <v>1.039234605980184</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2031442249049462</v>
+        <v>0.1821026405886741</v>
       </c>
       <c r="H7">
-        <v>0.003279902464945361</v>
+        <v>0.003348267927365089</v>
       </c>
       <c r="I7">
-        <v>0.000761361426936169</v>
+        <v>0.001018325557678779</v>
       </c>
       <c r="J7">
-        <v>0.224661350680293</v>
+        <v>0.2507726104643311</v>
       </c>
       <c r="K7">
-        <v>0.20315198915916</v>
+        <v>0.1937232406147071</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.12230939824871</v>
       </c>
       <c r="M7">
-        <v>0.7434073335960676</v>
+        <v>0.03798776922757607</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7427854745691604</v>
       </c>
       <c r="P7">
-        <v>0.7550719632241538</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8492847576460463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7501188018337714</v>
+      </c>
+      <c r="S7">
+        <v>0.8257609828420414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7985174889285247</v>
+        <v>0.7815216559892235</v>
       </c>
       <c r="C8">
-        <v>0.1682491194083156</v>
+        <v>0.1695280629807314</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.250039192713331</v>
+        <v>1.25034480119561</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2093606466032298</v>
+        <v>0.1903979111509599</v>
       </c>
       <c r="H8">
-        <v>0.005590645123296656</v>
+        <v>0.005619602679822644</v>
       </c>
       <c r="I8">
-        <v>0.001194745502993477</v>
+        <v>0.001500324626495519</v>
       </c>
       <c r="J8">
-        <v>0.2229948647009223</v>
+        <v>0.2442739320645231</v>
       </c>
       <c r="K8">
-        <v>0.1978767885952166</v>
+        <v>0.1873487183054685</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1158339023217572</v>
       </c>
       <c r="M8">
-        <v>0.8907215861329405</v>
+        <v>0.03720765547191895</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8879627844433173</v>
       </c>
       <c r="P8">
-        <v>0.7381093175214986</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8592723925246446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7388247488874882</v>
+      </c>
+      <c r="S8">
+        <v>0.8269116674189405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.066742753566587</v>
+        <v>1.033204037003117</v>
       </c>
       <c r="C9">
-        <v>0.2089923783662755</v>
+        <v>0.2190056462665098</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.666217049914437</v>
+        <v>1.665338865991515</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2249201762715387</v>
+        <v>0.2032369610097007</v>
       </c>
       <c r="H9">
-        <v>0.01139902262301828</v>
+        <v>0.01129540723405506</v>
       </c>
       <c r="I9">
-        <v>0.002564638828215671</v>
+        <v>0.002788597584700625</v>
       </c>
       <c r="J9">
-        <v>0.2218486108512749</v>
+        <v>0.2423401971179544</v>
       </c>
       <c r="K9">
-        <v>0.1899424420690004</v>
+        <v>0.1775714307181033</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1055694173584829</v>
       </c>
       <c r="M9">
-        <v>1.178458719602986</v>
+        <v>0.03929534837015858</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.174043893227179</v>
       </c>
       <c r="P9">
-        <v>0.7081862200703668</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8904005270935329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7191202565956942</v>
+      </c>
+      <c r="S9">
+        <v>0.844713044074922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.256715727897074</v>
+        <v>1.208802303948147</v>
       </c>
       <c r="C10">
-        <v>0.2381050445265487</v>
+        <v>0.2528023551102052</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.87362089909945</v>
+        <v>1.871626294994812</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2329955195615128</v>
+        <v>0.2206268593510003</v>
       </c>
       <c r="H10">
-        <v>0.01612870131118394</v>
+        <v>0.01586598289535468</v>
       </c>
       <c r="I10">
-        <v>0.00423822261740181</v>
+        <v>0.004330805445583508</v>
       </c>
       <c r="J10">
-        <v>0.2196049181929283</v>
+        <v>0.2252891367850154</v>
       </c>
       <c r="K10">
-        <v>0.1829325277227145</v>
+        <v>0.1682316416143852</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09794868852198846</v>
       </c>
       <c r="M10">
-        <v>1.382728573579584</v>
+        <v>0.04162884495100982</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.372474986531074</v>
       </c>
       <c r="P10">
-        <v>0.6933608687232962</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9031843187989352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7145961410050603</v>
+      </c>
+      <c r="S10">
+        <v>0.8390278192544685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.303591314529513</v>
+        <v>1.251763600712877</v>
       </c>
       <c r="C11">
-        <v>0.2349762460397926</v>
+        <v>0.2449996144356845</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.198795640995101</v>
+        <v>1.196851392964916</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1996292839254039</v>
+        <v>0.2112272210004633</v>
       </c>
       <c r="H11">
-        <v>0.03200728674096354</v>
+        <v>0.03170885318978378</v>
       </c>
       <c r="I11">
-        <v>0.005055576713264287</v>
+        <v>0.005176746364091045</v>
       </c>
       <c r="J11">
-        <v>0.2003821924409834</v>
+        <v>0.1875654535440674</v>
       </c>
       <c r="K11">
-        <v>0.1644437246203001</v>
+        <v>0.1502797940784362</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09024176415739138</v>
       </c>
       <c r="M11">
-        <v>1.417356059055152</v>
+        <v>0.03676093209162268</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.397010690271401</v>
       </c>
       <c r="P11">
-        <v>0.7245870501875871</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.792280597415342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7567733768441656</v>
+      </c>
+      <c r="S11">
+        <v>0.7197064826159334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.306298234800067</v>
+        <v>1.255629632277817</v>
       </c>
       <c r="C12">
-        <v>0.2249453739892431</v>
+        <v>0.2311866544982166</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7158362647338237</v>
+        <v>0.7142538426994207</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1728646396482958</v>
+        <v>0.1939508941290669</v>
       </c>
       <c r="H12">
-        <v>0.06857115205734488</v>
+        <v>0.06828491073816423</v>
       </c>
       <c r="I12">
-        <v>0.005038172427902943</v>
+        <v>0.005144891645596061</v>
       </c>
       <c r="J12">
-        <v>0.1859021842609252</v>
+        <v>0.172448016854263</v>
       </c>
       <c r="K12">
-        <v>0.1521404834616735</v>
+        <v>0.1396222634227264</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0864249807798334</v>
       </c>
       <c r="M12">
-        <v>1.403339220052118</v>
+        <v>0.03287572542697426</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.378556685010409</v>
       </c>
       <c r="P12">
-        <v>0.7565887957126662</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7052257411455543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7944250170520277</v>
+      </c>
+      <c r="S12">
+        <v>0.6360296463693658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.271848771663429</v>
+        <v>1.22738059978326</v>
       </c>
       <c r="C13">
-        <v>0.2108401123084036</v>
+        <v>0.2144951460082467</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.352115760460272</v>
+        <v>0.3510264982796159</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1483207221504728</v>
+        <v>0.1651340381487358</v>
       </c>
       <c r="H13">
-        <v>0.122413491883492</v>
+        <v>0.1221741379512906</v>
       </c>
       <c r="I13">
-        <v>0.004705253223885819</v>
+        <v>0.00484655537811296</v>
       </c>
       <c r="J13">
-        <v>0.1735061203628803</v>
+        <v>0.1688248149569098</v>
       </c>
       <c r="K13">
-        <v>0.1428397377272503</v>
+        <v>0.1329510561673501</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08451004790096306</v>
       </c>
       <c r="M13">
-        <v>1.35127587054933</v>
+        <v>0.02947317929820059</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.328056084033193</v>
       </c>
       <c r="P13">
-        <v>0.7912077929223997</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6271816941341228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8284545434789834</v>
+      </c>
+      <c r="S13">
+        <v>0.5715576243223239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.230434213568657</v>
+        <v>1.19247843409849</v>
       </c>
       <c r="C14">
-        <v>0.1995951014815347</v>
+        <v>0.2019260748305527</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.169497192519998</v>
+        <v>0.1687386216920288</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1323362526332303</v>
+        <v>0.1414989212630857</v>
       </c>
       <c r="H14">
-        <v>0.1705824685083996</v>
+        <v>0.1703857895326024</v>
       </c>
       <c r="I14">
-        <v>0.004419817155750572</v>
+        <v>0.004618558772347292</v>
       </c>
       <c r="J14">
-        <v>0.1658074582954399</v>
+        <v>0.1695287736908426</v>
       </c>
       <c r="K14">
-        <v>0.137708308364564</v>
+        <v>0.1298659826884716</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08381775397094904</v>
       </c>
       <c r="M14">
-        <v>1.297938984947848</v>
+        <v>0.02736744063879826</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.27833076330478</v>
       </c>
       <c r="P14">
-        <v>0.8170083946322251</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5771087527167396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8505905079432523</v>
+      </c>
+      <c r="S14">
+        <v>0.5340664242297635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.211657018295341</v>
+        <v>1.176255451535297</v>
       </c>
       <c r="C15">
-        <v>0.1963281776341006</v>
+        <v>0.1985029646328229</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1340369259181671</v>
+        <v>0.1333712382329431</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1284932096229703</v>
+        <v>0.1340002493500165</v>
       </c>
       <c r="H15">
-        <v>0.1827125593055854</v>
+        <v>0.1825332582392178</v>
       </c>
       <c r="I15">
-        <v>0.004385895958304076</v>
+        <v>0.004630454673542062</v>
       </c>
       <c r="J15">
-        <v>0.1641907769419717</v>
+        <v>0.1710787385856758</v>
       </c>
       <c r="K15">
-        <v>0.1368478953108898</v>
+        <v>0.1296252178893393</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08386495429040641</v>
       </c>
       <c r="M15">
-        <v>1.276945569675178</v>
+        <v>0.02689442613481319</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.259289937417549</v>
       </c>
       <c r="P15">
-        <v>0.8237272325561946</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5655454800645572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8550798501042607</v>
+      </c>
+      <c r="S15">
+        <v>0.5269735701748033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.136580870904027</v>
+        <v>1.109480200808264</v>
       </c>
       <c r="C16">
-        <v>0.1877227383192519</v>
+        <v>0.1909066440759943</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1317073457294882</v>
+        <v>0.1312567290878874</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.129732270503311</v>
+        <v>0.1204331620254067</v>
       </c>
       <c r="H16">
-        <v>0.1685990269189546</v>
+        <v>0.1684890120422722</v>
       </c>
       <c r="I16">
-        <v>0.003869390908421089</v>
+        <v>0.004222178011386468</v>
       </c>
       <c r="J16">
-        <v>0.1673497241411681</v>
+        <v>0.1865592283490329</v>
       </c>
       <c r="K16">
-        <v>0.1412187509805838</v>
+        <v>0.1350791016449397</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08627872171568018</v>
       </c>
       <c r="M16">
-        <v>1.201122419078814</v>
+        <v>0.02746095116803815</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.192375153934705</v>
       </c>
       <c r="P16">
-        <v>0.8207541422267752</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5746419568640988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8411923794486</v>
+      </c>
+      <c r="S16">
+        <v>0.5487269805926758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.100847542715286</v>
+        <v>1.076056590535842</v>
       </c>
       <c r="C17">
-        <v>0.1870423450758238</v>
+        <v>0.1913462103401145</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2136149046285496</v>
+        <v>0.213217644895245</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.138985585236135</v>
+        <v>0.1233382974637323</v>
       </c>
       <c r="H17">
-        <v>0.1303239285657298</v>
+        <v>0.1302422504945184</v>
       </c>
       <c r="I17">
-        <v>0.003645582683146742</v>
+        <v>0.004048551612010343</v>
       </c>
       <c r="J17">
-        <v>0.1738312251024325</v>
+        <v>0.1991571018436353</v>
       </c>
       <c r="K17">
-        <v>0.1472516156981367</v>
+        <v>0.1409536200442556</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0887998741919267</v>
       </c>
       <c r="M17">
-        <v>1.17113511729633</v>
+        <v>0.02884472164295815</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.166175320164683</v>
       </c>
       <c r="P17">
-        <v>0.8050681863890574</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6077538152885182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.820800370603088</v>
+      </c>
+      <c r="S17">
+        <v>0.5847789883077255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.096649461128521</v>
+        <v>1.070208858097118</v>
       </c>
       <c r="C18">
-        <v>0.1925491914149404</v>
+        <v>0.1987954063299924</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4399519209068004</v>
+        <v>0.4394865266070127</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.157621334995433</v>
+        <v>0.1380285419952401</v>
       </c>
       <c r="H18">
-        <v>0.07802467062730045</v>
+        <v>0.07794660675694587</v>
       </c>
       <c r="I18">
-        <v>0.003382150906434234</v>
+        <v>0.003750195546073698</v>
       </c>
       <c r="J18">
-        <v>0.1844995043344539</v>
+        <v>0.2122475748671988</v>
       </c>
       <c r="K18">
-        <v>0.1561774323468015</v>
+        <v>0.1488008812827868</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09206669862979844</v>
       </c>
       <c r="M18">
-        <v>1.177239667002397</v>
+        <v>0.03132554405581267</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.17384843471217</v>
       </c>
       <c r="P18">
-        <v>0.7771849736988301</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6695796113720576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7912552908949877</v>
+      </c>
+      <c r="S18">
+        <v>0.6437432178589546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.114222063457561</v>
+        <v>1.083456311190957</v>
       </c>
       <c r="C19">
-        <v>0.2051011687748741</v>
+        <v>0.2142752352013133</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8626114010950516</v>
+        <v>0.8619301743779744</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1829496069439642</v>
+        <v>0.1603317741525245</v>
       </c>
       <c r="H19">
-        <v>0.03467081519949744</v>
+        <v>0.03457361283216898</v>
       </c>
       <c r="I19">
-        <v>0.003631989903975175</v>
+        <v>0.004012297298377376</v>
       </c>
       <c r="J19">
-        <v>0.1977512511361894</v>
+        <v>0.2255243024442635</v>
       </c>
       <c r="K19">
-        <v>0.1667687332682206</v>
+        <v>0.1576457983259338</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09563884182405591</v>
       </c>
       <c r="M19">
-        <v>1.212445074399966</v>
+        <v>0.03451341272209518</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.209405251053141</v>
       </c>
       <c r="P19">
-        <v>0.7457301407161339</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7510554609354898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7597906737965587</v>
+      </c>
+      <c r="S19">
+        <v>0.7182803994764697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.200027660464201</v>
+        <v>1.157490082174718</v>
       </c>
       <c r="C20">
-        <v>0.2337933233008158</v>
+        <v>0.2485125312503129</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.814821051573375</v>
+        <v>1.813244408941799</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2281159821472372</v>
+        <v>0.2066092376843542</v>
       </c>
       <c r="H20">
-        <v>0.01476757367652315</v>
+        <v>0.01456519131795719</v>
       </c>
       <c r="I20">
-        <v>0.004456575027006693</v>
+        <v>0.00476259346947927</v>
       </c>
       <c r="J20">
-        <v>0.2187536745479974</v>
+        <v>0.2369724201252339</v>
       </c>
       <c r="K20">
-        <v>0.1828140068749882</v>
+        <v>0.1696177032025563</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09947920095370932</v>
       </c>
       <c r="M20">
-        <v>1.328862925167044</v>
+        <v>0.04051166165293196</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.322939025780073</v>
       </c>
       <c r="P20">
-        <v>0.6995889587944362</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8909619384736089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7168725931288122</v>
+      </c>
+      <c r="S20">
+        <v>0.8377604951878084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.352898338001694</v>
+        <v>1.290531629171397</v>
       </c>
       <c r="C21">
-        <v>0.25903426452102</v>
+        <v>0.2725148864348768</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.129028526913018</v>
+        <v>2.125823788754346</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2420771505367725</v>
+        <v>0.2656524091874601</v>
       </c>
       <c r="H21">
-        <v>0.01951141896121555</v>
+        <v>0.01907608047126796</v>
       </c>
       <c r="I21">
-        <v>0.005890625377998226</v>
+        <v>0.005958537075315462</v>
       </c>
       <c r="J21">
-        <v>0.2209141662753922</v>
+        <v>0.1899939979335059</v>
       </c>
       <c r="K21">
-        <v>0.180910742227038</v>
+        <v>0.1617436515114328</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09384645972089256</v>
       </c>
       <c r="M21">
-        <v>1.4958646464342</v>
+        <v>0.04232914504042995</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.470563997412029</v>
       </c>
       <c r="P21">
-        <v>0.6830413909451494</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9253688570509269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7163946571570037</v>
+      </c>
+      <c r="S21">
+        <v>0.8258172889587598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.453241650901418</v>
+        <v>1.377331960519399</v>
       </c>
       <c r="C22">
-        <v>0.273165941303148</v>
+        <v>0.2850787508029526</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.284202248760593</v>
+        <v>2.27990286083228</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2503564558452425</v>
+        <v>0.3106779935552879</v>
       </c>
       <c r="H22">
-        <v>0.02259385746990961</v>
+        <v>0.02198935544299907</v>
       </c>
       <c r="I22">
-        <v>0.006658469563736169</v>
+        <v>0.006473814990809679</v>
       </c>
       <c r="J22">
-        <v>0.2219817928618824</v>
+        <v>0.1668260633083261</v>
       </c>
       <c r="K22">
-        <v>0.1797109914026898</v>
+        <v>0.1564095119968041</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09036430453779332</v>
       </c>
       <c r="M22">
-        <v>1.601621371164413</v>
+        <v>0.04359566632165013</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.562180707546531</v>
       </c>
       <c r="P22">
-        <v>0.6737311348894011</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9453338737656622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7186976672668735</v>
+      </c>
+      <c r="S22">
+        <v>0.8133377186548785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.402293708984701</v>
+        <v>1.334608680007278</v>
       </c>
       <c r="C23">
-        <v>0.2642773368575746</v>
+        <v>0.2777370401973087</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.201373905413504</v>
+        <v>2.19773260444515</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.2468471283171922</v>
+        <v>0.2814121480493625</v>
       </c>
       <c r="H23">
-        <v>0.02093314812584635</v>
+        <v>0.02043017643951206</v>
       </c>
       <c r="I23">
-        <v>0.005965233695385486</v>
+        <v>0.005862875367054876</v>
       </c>
       <c r="J23">
-        <v>0.2218791132727418</v>
+        <v>0.1819720832483007</v>
       </c>
       <c r="K23">
-        <v>0.1810208727444937</v>
+        <v>0.1603124284883606</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09252573091916272</v>
       </c>
       <c r="M23">
-        <v>1.545173235864013</v>
+        <v>0.04338539877183045</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.515372629965839</v>
       </c>
       <c r="P23">
-        <v>0.6777065558965703</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9375852846777661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.715066686946713</v>
+      </c>
+      <c r="S23">
+        <v>0.8267415942186886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.20467870546355</v>
+        <v>1.161718627407396</v>
       </c>
       <c r="C24">
-        <v>0.2330620438404054</v>
+        <v>0.2479921234756688</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.888743419199784</v>
+        <v>1.887120248974696</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2327658921854052</v>
+        <v>0.2106133039464098</v>
       </c>
       <c r="H24">
-        <v>0.01509661250475658</v>
+        <v>0.01488985840093682</v>
       </c>
       <c r="I24">
-        <v>0.004031654021098952</v>
+        <v>0.004235478101848322</v>
       </c>
       <c r="J24">
-        <v>0.2211441737270761</v>
+        <v>0.2395990855410162</v>
       </c>
       <c r="K24">
-        <v>0.1853129907505089</v>
+        <v>0.171802164878665</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1003434419798364</v>
       </c>
       <c r="M24">
-        <v>1.331413270375265</v>
+        <v>0.04130876171355524</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.3256289971294</v>
       </c>
       <c r="P24">
-        <v>0.695511196393376</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.905829080418826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.712405397456088</v>
+      </c>
+      <c r="S24">
+        <v>0.8517185005766521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9906211265745526</v>
+        <v>0.9622929569630401</v>
       </c>
       <c r="C25">
-        <v>0.1998415490019454</v>
+        <v>0.2079538156990282</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.553363478713152</v>
+        <v>1.552876466896649</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2190298466468761</v>
+        <v>0.1954958557523483</v>
       </c>
       <c r="H25">
-        <v>0.009666371496494075</v>
+        <v>0.009611574026799359</v>
       </c>
       <c r="I25">
-        <v>0.002474073030140467</v>
+        <v>0.002821362373900627</v>
       </c>
       <c r="J25">
-        <v>0.2212468675721411</v>
+        <v>0.2457584718145398</v>
       </c>
       <c r="K25">
-        <v>0.1908608933879368</v>
+        <v>0.1794027109407121</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.107882589695464</v>
       </c>
       <c r="M25">
-        <v>1.100719556044766</v>
+        <v>0.03815003785993376</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.097865899727964</v>
       </c>
       <c r="P25">
-        <v>0.7170844655700321</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8765099632345823</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7248039944372309</v>
+      </c>
+      <c r="S25">
+        <v>0.8370667254680058</v>
       </c>
     </row>
   </sheetData>
